--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -765,22 +765,22 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -941,10 +941,10 @@
         <v>2.05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -971,22 +971,22 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
         <v>5.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>6</v>
-      </c>
       <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -1001,10 +1001,10 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1013,13 +1013,13 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
@@ -1043,13 +1043,13 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>2.6</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1153,10 +1153,10 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
@@ -1168,16 +1168,16 @@
         <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="n">
         <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1192,10 +1192,10 @@
         <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
@@ -1216,16 +1216,16 @@
         <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
         <v>2.5</v>
@@ -1237,13 +1237,13 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX4" t="n">
         <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>34</v>
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1323,10 +1323,10 @@
         <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1669,7 +1669,7 @@
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
         <v>3.4</v>
@@ -1687,10 +1687,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1705,10 +1705,10 @@
         <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1723,13 +1723,13 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1768,7 +1768,7 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -2033,28 +2033,28 @@
         <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2069,19 +2069,19 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
         <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
         <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2105,10 +2105,10 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2126,10 +2126,10 @@
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2415,43 +2415,43 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
         <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
@@ -2466,19 +2466,19 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
         <v>23</v>
@@ -2487,10 +2487,10 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>67</v>
@@ -2502,7 +2502,7 @@
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
@@ -2514,13 +2514,13 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J16" t="n">
         <v>5.1</v>
@@ -3310,37 +3310,37 @@
         <v>2.22</v>
       </c>
       <c r="L16" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
         <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T16" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
         <v>13</v>
@@ -3349,7 +3349,7 @@
         <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
         <v>90</v>
@@ -3361,31 +3361,31 @@
         <v>55</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>90</v>
       </c>
       <c r="AG16" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH16" t="n">
         <v>6.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.25</v>
       </c>
       <c r="AK16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
         <v>13.5</v>
@@ -3394,7 +3394,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
@@ -3412,19 +3412,19 @@
         <v>450</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW16" t="n">
         <v>3.45</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AY16" t="n">
         <v>17.5</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
         <v>3.2</v>
@@ -3555,7 +3555,7 @@
         <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
@@ -3573,13 +3573,13 @@
         <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
         <v>19</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>1.91</v>
@@ -3677,10 +3677,10 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -3689,10 +3689,10 @@
         <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
         <v>1.57</v>
@@ -3752,7 +3752,7 @@
         <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
@@ -3788,7 +3788,7 @@
         <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J19" t="n">
         <v>6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.5</v>
       </c>
       <c r="K19" t="n">
         <v>2.5</v>
@@ -3862,7 +3862,7 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3883,10 +3883,10 @@
         <v>3.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>19</v>
@@ -3910,7 +3910,7 @@
         <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3925,7 +3925,7 @@
         <v>8.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>8.5</v>
@@ -3940,7 +3940,7 @@
         <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>34</v>
@@ -3949,7 +3949,7 @@
         <v>34</v>
       </c>
       <c r="AQ19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR19" t="n">
         <v>126</v>
@@ -3967,10 +3967,10 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
         <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>2.5</v>
@@ -4041,16 +4041,16 @@
         <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
         <v>2.35</v>
@@ -4146,7 +4146,7 @@
         <v>9.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
         <v>6.5</v>
@@ -4235,10 +4235,10 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -4247,10 +4247,10 @@
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
         <v>7</v>
@@ -4271,7 +4271,7 @@
         <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
@@ -4313,7 +4313,7 @@
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
@@ -4325,7 +4325,7 @@
         <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4337,7 +4337,7 @@
         <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
         <v>81</v>
@@ -4346,7 +4346,7 @@
         <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4590,7 +4590,7 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -4599,10 +4599,10 @@
         <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -4623,10 +4623,10 @@
         <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
         <v>21</v>
@@ -4656,7 +4656,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
         <v>34</v>
@@ -4665,7 +4665,7 @@
         <v>26</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
         <v>4.33</v>
@@ -4751,19 +4751,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J24" t="n">
         <v>2.1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
@@ -4772,7 +4772,7 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
@@ -4781,10 +4781,10 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -4793,13 +4793,13 @@
         <v>3.25</v>
       </c>
       <c r="U24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
         <v>8</v>
@@ -4817,7 +4817,7 @@
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
         <v>7.5</v>
@@ -4856,7 +4856,7 @@
         <v>8</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>23</v>
@@ -4871,7 +4871,7 @@
         <v>3.25</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4880,13 +4880,13 @@
         <v>7</v>
       </c>
       <c r="AX24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY24" t="n">
         <v>29</v>
       </c>
-      <c r="AY24" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA24" t="n">
         <v>101</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
@@ -4942,7 +4942,7 @@
         <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
@@ -4951,10 +4951,10 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -4963,10 +4963,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -4975,13 +4975,13 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
         <v>8.5</v>
@@ -4990,7 +4990,7 @@
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
         <v>17</v>
@@ -4999,7 +4999,7 @@
         <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6.5</v>
@@ -5011,10 +5011,10 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
         <v>19</v>
@@ -5035,13 +5035,13 @@
         <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5065,7 +5065,7 @@
         <v>23</v>
       </c>
       <c r="AY25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ25" t="n">
         <v>81</v>
@@ -5118,10 +5118,10 @@
         <v>1.22</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
         <v>1.67</v>
@@ -5130,7 +5130,7 @@
         <v>2.6</v>
       </c>
       <c r="L26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5172,13 +5172,13 @@
         <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA26" t="n">
         <v>12</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
         <v>12</v>
@@ -5187,7 +5187,7 @@
         <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="n">
         <v>101</v>
@@ -5196,19 +5196,19 @@
         <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
         <v>51</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM26" t="n">
         <v>81</v>
@@ -5223,7 +5223,7 @@
         <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
         <v>41</v>
@@ -5235,13 +5235,13 @@
         <v>3.25</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV26" t="n">
         <v>81</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
         <v>51</v>
@@ -5297,142 +5297,142 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
-        <v>2.52</v>
+        <v>2.27</v>
       </c>
       <c r="K27" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="L27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P27" t="n">
         <v>3.95</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.55</v>
-      </c>
       <c r="Q27" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="T27" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="X27" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y27" t="n">
         <v>8.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="AE27" t="n">
         <v>13.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG27" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH27" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AK27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR27" t="n">
         <v>50</v>
       </c>
-      <c r="AL27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>65</v>
-      </c>
       <c r="AS27" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="AU27" t="n">
         <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AX27" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA27" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -983,7 +983,7 @@
         <v>5.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
@@ -1010,13 +1010,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
@@ -1025,13 +1025,13 @@
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1064,10 +1064,10 @@
         <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>4.75</v>
@@ -2033,7 +2033,7 @@
         <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
@@ -2057,22 +2057,22 @@
         <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2081,13 +2081,13 @@
         <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
         <v>8</v>
@@ -2096,16 +2096,16 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
@@ -2120,25 +2120,25 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2284,7 +2284,7 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2323,7 +2323,7 @@
         <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2415,10 +2415,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2532,7 +2532,7 @@
         <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
         <v>3.75</v>
@@ -3143,10 +3143,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3170,7 +3170,7 @@
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
         <v>17</v>
@@ -3179,22 +3179,22 @@
         <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>17</v>
@@ -3239,7 +3239,7 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
         <v>19</v>
@@ -3254,10 +3254,10 @@
         <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD15" t="n">
         <v>126</v>
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
         <v>1.65</v>
@@ -3307,7 +3307,7 @@
         <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
         <v>2.18</v>
@@ -3316,16 +3316,16 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
         <v>1.8</v>
@@ -3337,10 +3337,10 @@
         <v>2.82</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W16" t="n">
         <v>13</v>
@@ -3355,13 +3355,13 @@
         <v>90</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
         <v>55</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD16" t="n">
         <v>7.1</v>
@@ -3376,7 +3376,7 @@
         <v>700</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI16" t="n">
         <v>7.2</v>
@@ -3394,10 +3394,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
         <v>32</v>
@@ -3409,7 +3409,7 @@
         <v>200</v>
       </c>
       <c r="AS16" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT16" t="n">
         <v>2.82</v>
@@ -3677,10 +3677,10 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -3689,10 +3689,10 @@
         <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
         <v>1.57</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.75</v>
+        <v>1.57</v>
       </c>
       <c r="H19" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.42</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.5</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="U19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
         <v>15</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>19</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="AB19" t="n">
         <v>34</v>
       </c>
-      <c r="Y19" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG19" t="n">
         <v>201</v>
       </c>
       <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>23</v>
       </c>
-      <c r="AN19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="AR19" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ19" t="n">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,167 +4004,167 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="J20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="Q20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V20" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W20" t="n">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
-        <v>7.5</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
         <v>9</v>
       </c>
-      <c r="Z20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="AE20" t="n">
         <v>17</v>
       </c>
-      <c r="AB20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
         <v>201</v>
       </c>
       <c r="AH20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL20" t="n">
         <v>11</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AM20" t="n">
         <v>23</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AN20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY20" t="n">
         <v>17</v>
       </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="AZ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA20" t="n">
         <v>41</v>
       </c>
-      <c r="AM20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ20" t="n">
+      <c r="BB20" t="n">
         <v>101</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>501</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4196,157 +4196,157 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.2</v>
       </c>
-      <c r="L21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="V21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
         <v>11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>34</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA21" t="n">
         <v>151</v>
       </c>
-      <c r="AT21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>101</v>
-      </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,37 +4378,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -4417,10 +4417,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4429,76 +4429,76 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
         <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
         <v>41</v>
       </c>
-      <c r="AG22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>34</v>
       </c>
-      <c r="AL22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>41</v>
-      </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
         <v>151</v>
@@ -4507,28 +4507,28 @@
         <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,103 +4560,103 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R23" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
       </c>
       <c r="Y23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
         <v>10</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
         <v>34</v>
@@ -4674,7 +4674,7 @@
         <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
@@ -4683,13 +4683,13 @@
         <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4701,7 +4701,7 @@
         <v>17</v>
       </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>51</v>
@@ -4710,7 +4710,7 @@
         <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,85 +4742,85 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.1</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>13</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>1.7</v>
       </c>
-      <c r="R24" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4829,67 +4829,67 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
         <v>201</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX24" t="n">
         <v>17</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>29</v>
       </c>
       <c r="AZ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA24" t="n">
         <v>81</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>101</v>
       </c>
       <c r="BB24" t="n">
         <v>201</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4924,85 +4924,85 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R25" t="n">
         <v>2.1</v>
       </c>
-      <c r="L25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="S25" t="n">
         <v>1.33</v>
       </c>
-      <c r="P25" t="n">
+      <c r="T25" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -5011,70 +5011,70 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL25" t="n">
         <v>41</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY25" t="n">
         <v>34</v>
       </c>
-      <c r="AR25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA25" t="n">
         <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
-        <v>6.25</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>13</v>
       </c>
-      <c r="J26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>12</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>12</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y26" t="n">
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO26" t="n">
         <v>10</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>5.5</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AR26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
         <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>81</v>
       </c>
-      <c r="AW26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>351</v>
-      </c>
       <c r="BA26" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="BB26" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC26" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD26" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,167 +5278,167 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.72</v>
+        <v>1.22</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.95</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>2.27</v>
+        <v>1.67</v>
       </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L27" t="n">
-        <v>4.3</v>
+        <v>11</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R27" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T27" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="U27" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="V27" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="W27" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="AA27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP27" t="n">
         <v>21</v>
       </c>
-      <c r="AC27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AQ27" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AS27" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV27" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW27" t="n">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AZ27" t="n">
-        <v>110</v>
+        <v>351</v>
       </c>
       <c r="BA27" t="n">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="BB27" t="n">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>82eFhJGa</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5470,162 +5470,708 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>4.85</v>
       </c>
       <c r="J28" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="L28" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>4.05</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="S28" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="T28" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="U28" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="V28" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="W28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD28" t="n">
         <v>7.8</v>
       </c>
-      <c r="X28" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z28" t="n">
+      <c r="AE28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AK28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP28" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ28" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AR28" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AS28" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ28" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="BA28" t="n">
         <v>150</v>
       </c>
       <c r="BB28" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
       </c>
       <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>82eFhJGa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X29" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>rZtf1obm</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8</v>
+      </c>
+      <c r="X30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>QH0N67zQ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Dep. Tachira</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>450</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD31" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -771,16 +771,16 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -971,16 +971,16 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -995,28 +995,28 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
@@ -1025,13 +1025,13 @@
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1043,7 +1043,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1064,10 +1064,10 @@
         <v>51</v>
       </c>
       <c r="AZ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA3" t="n">
         <v>251</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>301</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1114,25 +1114,25 @@
         <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1177,7 +1177,7 @@
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1192,7 +1192,7 @@
         <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>7.5</v>
@@ -1201,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>17</v>
@@ -1210,7 +1210,7 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
         <v>26</v>
@@ -1243,13 +1243,13 @@
         <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>34</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1317,16 +1317,16 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1344,13 +1344,13 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1359,7 +1359,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1380,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
         <v>51</v>
@@ -1392,16 +1392,16 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1419,7 +1419,7 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
         <v>26</v>
@@ -1428,7 +1428,7 @@
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
         <v>126</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>4.33</v>
@@ -1511,10 +1511,10 @@
         <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1523,13 +1523,13 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
         <v>41</v>
@@ -1544,10 +1544,10 @@
         <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
@@ -1568,10 +1568,10 @@
         <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
         <v>5.5</v>
@@ -1592,7 +1592,7 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1604,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1681,16 +1681,16 @@
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2075,7 +2075,7 @@
         <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
         <v>12</v>
@@ -2090,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2099,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
@@ -2108,7 +2108,7 @@
         <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2123,7 +2123,7 @@
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2227,16 +2227,16 @@
         <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2254,13 +2254,13 @@
         <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2275,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -2296,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
@@ -2305,13 +2305,13 @@
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2335,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
         <v>67</v>
@@ -2347,7 +2347,7 @@
         <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>126</v>
@@ -2415,10 +2415,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -3137,16 +3137,16 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3501,16 +3501,16 @@
         <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="n">
         <v>1.25</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>1.91</v>
@@ -3707,7 +3707,7 @@
         <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
         <v>10</v>
@@ -3743,16 +3743,16 @@
         <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
@@ -3788,7 +3788,7 @@
         <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
@@ -3800,7 +3800,7 @@
         <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3859,10 +3859,10 @@
         <v>6.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3871,10 +3871,10 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -4208,7 +4208,7 @@
         <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
         <v>5</v>
@@ -4223,10 +4223,10 @@
         <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -4241,10 +4241,10 @@
         <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U21" t="n">
         <v>2.2</v>
@@ -4322,13 +4322,13 @@
         <v>251</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU21" t="n">
         <v>9.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW21" t="n">
         <v>6.5</v>
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
         <v>5.5</v>
@@ -5014,7 +5014,7 @@
         <v>201</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>29</v>
@@ -5035,7 +5035,7 @@
         <v>3.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP25" t="n">
         <v>17</v>
@@ -5115,40 +5115,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
         <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
         <v>2.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5157,16 +5157,16 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
@@ -5178,10 +5178,10 @@
         <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
@@ -5190,25 +5190,25 @@
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
         <v>301</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>41</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -5220,7 +5220,7 @@
         <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>34</v>
@@ -5229,7 +5229,7 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT26" t="n">
         <v>2.63</v>
@@ -5238,7 +5238,7 @@
         <v>8.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="n">
         <v>6</v>
@@ -5247,16 +5247,16 @@
         <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
         <v>81</v>
       </c>
       <c r="BA26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5297,46 +5297,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I27" t="n">
+        <v>13</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L27" t="n">
         <v>12</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>11</v>
-      </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U27" t="n">
         <v>2.5</v>
@@ -5354,22 +5354,22 @@
         <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA27" t="n">
         <v>12</v>
       </c>
       <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE27" t="n">
         <v>34</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>101</v>
@@ -5378,28 +5378,28 @@
         <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
         <v>51</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL27" t="n">
         <v>101</v>
       </c>
       <c r="AM27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN27" t="n">
         <v>3</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
@@ -5414,16 +5414,16 @@
         <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV27" t="n">
         <v>81</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
         <v>51</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>4.85</v>
+        <v>4.35</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="K28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -5503,43 +5503,43 @@
         <v>8.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.62</v>
       </c>
-      <c r="R28" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V28" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W28" t="n">
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
       </c>
       <c r="Z28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA28" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>11.75</v>
       </c>
       <c r="AB28" t="n">
         <v>21</v>
@@ -5548,79 +5548,79 @@
         <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF28" t="n">
         <v>50</v>
       </c>
       <c r="AG28" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP28" t="n">
         <v>15.5</v>
       </c>
-      <c r="AK28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AQ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX28" t="n">
         <v>23</v>
       </c>
-      <c r="AR28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>26</v>
-      </c>
       <c r="AY28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB28" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5661,34 +5661,34 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
         <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L29" t="n">
         <v>3.7</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="Q29" t="n">
         <v>1.7</v>
@@ -5697,19 +5697,19 @@
         <v>2.07</v>
       </c>
       <c r="S29" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X29" t="n">
         <v>11.25</v>
@@ -5718,19 +5718,19 @@
         <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="n">
         <v>15</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5742,7 +5742,7 @@
         <v>300</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI29" t="n">
         <v>19</v>
@@ -5763,7 +5763,7 @@
         <v>4.15</v>
       </c>
       <c r="AO29" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP29" t="n">
         <v>16.5</v>
@@ -5778,7 +5778,7 @@
         <v>175</v>
       </c>
       <c r="AT29" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU29" t="n">
         <v>6.6</v>
@@ -5843,22 +5843,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -5891,28 +5891,28 @@
         <v>1.85</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>14.5</v>
@@ -5924,43 +5924,43 @@
         <v>600</v>
       </c>
       <c r="AH30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AK30" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR30" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS30" t="n">
         <v>250</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AU30" t="n">
         <v>6.7</v>
@@ -5969,19 +5969,19 @@
         <v>55</v>
       </c>
       <c r="AW30" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AX30" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AZ30" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BA30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BB30" t="n">
         <v>250</v>
@@ -6025,40 +6025,40 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="J31" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K31" t="n">
         <v>2.22</v>
       </c>
       <c r="L31" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>6.95</v>
+        <v>7.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="S31" t="n">
         <v>1.4</v>
@@ -6067,73 +6067,73 @@
         <v>2.52</v>
       </c>
       <c r="U31" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="X31" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y31" t="n">
         <v>8.75</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF31" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG31" t="n">
         <v>201</v>
       </c>
       <c r="AH31" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AJ31" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AK31" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="AL31" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AM31" t="n">
         <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AO31" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AP31" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AR31" t="n">
         <v>55</v>
@@ -6151,19 +6151,19 @@
         <v>100</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AY31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AZ31" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="BA31" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB31" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
         <v>2.75</v>
@@ -2591,16 +2591,16 @@
         <v>21</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S12" t="n">
         <v>1.25</v>
@@ -2627,7 +2627,7 @@
         <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2636,10 +2636,10 @@
         <v>21</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>29</v>
@@ -2657,7 +2657,7 @@
         <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>15</v>
@@ -2696,7 +2696,7 @@
         <v>4.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>17</v>
@@ -2711,7 +2711,7 @@
         <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
         <v>2.5</v>
@@ -2800,7 +2800,7 @@
         <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2821,10 +2821,10 @@
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
@@ -2896,6 +2896,370 @@
         <v>81</v>
       </c>
       <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>63bg5ZFF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4bttdVx2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -789,25 +789,25 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
         <v>15</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2582,13 +2582,13 @@
         <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
         <v>1.14</v>
@@ -2597,16 +2597,16 @@
         <v>5.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
         <v>1.44</v>
@@ -2618,7 +2618,7 @@
         <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
@@ -2627,28 +2627,28 @@
         <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2657,16 +2657,16 @@
         <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>15</v>
       </c>
       <c r="AM12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2684,7 +2684,7 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2696,19 +2696,19 @@
         <v>4.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
         <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
         <v>301</v>
@@ -2767,10 +2767,10 @@
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1505,22 +1505,22 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.75</v>
       </c>
-      <c r="R6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
         <v>13</v>
@@ -1532,40 +1532,40 @@
         <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA6" t="n">
         <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
         <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>8.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
         <v>23</v>
@@ -1583,25 +1583,25 @@
         <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX6" t="n">
         <v>9</v>
@@ -1622,7 +1622,7 @@
         <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -2227,16 +2227,16 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
         <v>1.29</v>
@@ -2609,13 +2609,13 @@
         <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
@@ -2627,19 +2627,19 @@
         <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
@@ -2648,16 +2648,16 @@
         <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
         <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>15</v>
@@ -2666,13 +2666,13 @@
         <v>21</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
@@ -2693,7 +2693,7 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
@@ -2711,7 +2711,7 @@
         <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,167 +2730,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="J13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>1.91</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R13" t="n">
         <v>2.35</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AA13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>17</v>
       </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
       </c>
       <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL13" t="n">
         <v>11</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AM13" t="n">
         <v>23</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AN13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY13" t="n">
         <v>17</v>
       </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
+      <c r="AZ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA13" t="n">
         <v>41</v>
       </c>
-      <c r="AM13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
+      <c r="BB13" t="n">
         <v>101</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>501</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,157 +2922,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.2</v>
       </c>
-      <c r="L14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
         <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12</v>
       </c>
       <c r="AI14" t="n">
         <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="n">
         <v>151</v>
       </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,49 +3104,49 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3155,76 +3155,76 @@
         <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
         <v>41</v>
       </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>34</v>
       </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
@@ -3233,33 +3233,215 @@
         <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
       </c>
       <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4bttdVx2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.38</v>
@@ -2603,28 +2603,28 @@
         <v>2.35</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
         <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
@@ -2651,10 +2651,10 @@
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2669,22 +2669,22 @@
         <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2696,13 +2696,13 @@
         <v>4.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
@@ -3137,16 +3137,16 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.9</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -1147,10 +1147,10 @@
         <v>2.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
         <v>1.7</v>
@@ -1165,7 +1165,7 @@
         <v>8.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>12</v>
@@ -1177,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD4" t="n">
         <v>8.5</v>
@@ -1219,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
@@ -1228,7 +1228,7 @@
         <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1252,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -3143,10 +3143,10 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3442,6 +3442,370 @@
         <v>81</v>
       </c>
       <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>jgo01QEs</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pfJSJYU8</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,16 +1135,16 @@
         <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -1496,7 +1496,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.32</v>
@@ -2415,46 +2415,46 @@
         <v>3.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.8</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="X11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
         <v>55</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2463,31 +2463,31 @@
         <v>90</v>
       </c>
       <c r="AG11" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.25</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>32</v>
@@ -2499,10 +2499,10 @@
         <v>200</v>
       </c>
       <c r="AS11" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AU11" t="n">
         <v>7.6</v>
@@ -2511,19 +2511,19 @@
         <v>70</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AY11" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB11" t="n">
         <v>250</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jc9jJwe5</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,41 +2548,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2603,115 +2603,115 @@
         <v>2.35</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="X12" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y12" t="n">
         <v>19</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL12" t="n">
         <v>11</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AM12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AP12" t="n">
         <v>34</v>
       </c>
-      <c r="AG12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
         <v>51</v>
       </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU12" t="n">
+      <c r="AW12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX12" t="n">
         <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
         <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,167 +2730,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
         <v>6.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>17</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W13" t="n">
-        <v>19</v>
-      </c>
-      <c r="X13" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO13" t="n">
         <v>10</v>
       </c>
-      <c r="AL13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>34</v>
       </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>126</v>
-      </c>
       <c r="AR13" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,157 +2922,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
         <v>7</v>
       </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
         <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>51</v>
       </c>
       <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
         <v>41</v>
       </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
         <v>251</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>501</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,49 +3104,49 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
         <v>3.6</v>
       </c>
-      <c r="I15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3155,76 +3155,76 @@
         <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
         <v>15</v>
       </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
         <v>12</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
         <v>23</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AQ15" t="n">
         <v>41</v>
       </c>
-      <c r="AN15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
@@ -3233,28 +3233,28 @@
         <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
         <v>81</v>
       </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,103 +3286,103 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="Q16" t="n">
         <v>2.1</v>
       </c>
-      <c r="L16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.03</v>
-      </c>
       <c r="R16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.83</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="n">
         <v>21</v>
       </c>
-      <c r="AA16" t="n">
-        <v>19</v>
-      </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
         <v>34</v>
@@ -3400,7 +3400,7 @@
         <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
@@ -3409,13 +3409,13 @@
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3427,7 +3427,7 @@
         <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3436,7 +3436,7 @@
         <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,154 +3468,154 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.38</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R17" t="n">
         <v>2.1</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
         <v>23</v>
       </c>
-      <c r="AA17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR17" t="n">
         <v>41</v>
       </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>
@@ -3624,188 +3624,6 @@
         <v>81</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>pfJSJYU8</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>13</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD18" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -3143,10 +3143,10 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3331,10 +3331,10 @@
         <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
@@ -3495,16 +3495,16 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
         <v>1.7</v>
@@ -3513,7 +3513,7 @@
         <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T17" t="n">
         <v>3.25</v>
@@ -3525,16 +3525,16 @@
         <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
         <v>12</v>
@@ -3555,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
         <v>17</v>
@@ -3597,13 +3597,13 @@
         <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3615,7 +3615,7 @@
         <v>101</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -798,10 +798,10 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
@@ -837,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
         <v>15</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
         <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
         <v>2.18</v>
@@ -2409,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q11" t="n">
         <v>1.98</v>
@@ -2433,7 +2433,7 @@
         <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
         <v>26</v>
@@ -2457,19 +2457,19 @@
         <v>6.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF11" t="n">
         <v>90</v>
       </c>
       <c r="AG11" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.25</v>
@@ -2481,7 +2481,7 @@
         <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
         <v>6.4</v>
@@ -2493,25 +2493,25 @@
         <v>32</v>
       </c>
       <c r="AQ11" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AR11" t="n">
         <v>200</v>
       </c>
       <c r="AS11" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT11" t="n">
         <v>2.77</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>70</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX11" t="n">
         <v>8.25</v>
@@ -3331,10 +3331,10 @@
         <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -3513,7 +3513,7 @@
         <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -2388,19 +2388,19 @@
         <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K11" t="n">
         <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2409,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
         <v>1.98</v>
@@ -2433,16 +2433,16 @@
         <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
         <v>50</v>
@@ -2457,19 +2457,19 @@
         <v>6.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>90</v>
       </c>
       <c r="AG11" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.25</v>
@@ -2478,43 +2478,43 @@
         <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ11" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR11" t="n">
         <v>200</v>
       </c>
       <c r="AS11" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT11" t="n">
         <v>2.77</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV11" t="n">
         <v>70</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
         <v>17.5</v>
@@ -2523,7 +2523,7 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB11" t="n">
         <v>250</v>
@@ -2767,10 +2767,10 @@
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -2779,10 +2779,10 @@
         <v>2.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
         <v>1.53</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -3128,13 +3128,13 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -3143,10 +3143,10 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3197,7 +3197,7 @@
         <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>12</v>
@@ -3254,7 +3254,7 @@
         <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3325,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,16 +1135,16 @@
         <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
@@ -3134,7 +3134,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -3143,25 +3143,25 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -3188,10 +3188,10 @@
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
         <v>10</v>
@@ -3215,7 +3215,7 @@
         <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>23</v>
@@ -3230,7 +3230,7 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3242,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>26</v>
@@ -3625,6 +3625,188 @@
       </c>
       <c r="BD17" t="n">
         <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>rZtf1obm</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fcAISRoS</t>
+          <t>GAaHOioD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,47 +728,47 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.63</v>
+        <v>1.44</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -789,118 +789,118 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
         <v>8</v>
       </c>
-      <c r="X2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
         <v>26</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP2" t="n">
         <v>23</v>
       </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AQ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR2" t="n">
         <v>51</v>
       </c>
-      <c r="AG2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>81</v>
-      </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY2" t="n">
         <v>51</v>
       </c>
-      <c r="AW2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BA2" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC2" t="n">
         <v>81</v>
       </c>
-      <c r="BB2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KvdzGl2M</t>
+          <t>fcAISRoS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>6.3</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
         <v>201</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX3" t="n">
         <v>15</v>
       </c>
-      <c r="AI3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>45</v>
-      </c>
       <c r="AY3" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4CX6ASPq</t>
+          <t>KvdzGl2M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,169 +1102,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>7.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW4" t="n">
         <v>8</v>
       </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7</v>
-      </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CxyF86fd</t>
+          <t>4CX6ASPq</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,55 +1284,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
         <v>1.7</v>
@@ -1341,28 +1341,28 @@
         <v>2.05</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1371,46 +1371,46 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>21</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AR5" t="n">
         <v>41</v>
       </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1419,19 +1419,19 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1440,13 +1440,13 @@
         <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QHI1W9n3</t>
+          <t>CxyF86fd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1517,28 +1517,28 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
         <v>23</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
@@ -1547,76 +1547,76 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bVG9UmHF</t>
+          <t>QHI1W9n3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,169 +1648,169 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Qu1lN59k</t>
+          <t>bVG9UmHF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,67 +1830,67 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.5</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>7.7</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.87</v>
+        <v>2.35</v>
       </c>
       <c r="S8" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1899,100 +1899,100 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
         <v>17</v>
       </c>
-      <c r="AB8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nekcLqv2</t>
+          <t>Qu1lN59k</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,88 +2012,88 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="K9" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="T9" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="U9" t="n">
         <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W9" t="n">
         <v>7.6</v>
       </c>
       <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9</v>
       </c>
-      <c r="Y9" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE9" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15.5</v>
       </c>
       <c r="AF9" t="n">
         <v>65</v>
@@ -2102,61 +2102,61 @@
         <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM9" t="n">
         <v>40</v>
       </c>
-      <c r="AM9" t="n">
-        <v>45</v>
-      </c>
       <c r="AN9" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AR9" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>60</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX9" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA9" t="n">
         <v>150</v>
@@ -2168,13 +2168,13 @@
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>O4noaTdm</t>
+          <t>nekcLqv2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,169 +2194,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R10" t="n">
         <v>2.1</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.93</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
         <v>8</v>
       </c>
-      <c r="X10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AS10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
         <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dGkjAuDb</t>
+          <t>O4noaTdm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W11" t="n">
-        <v>11.75</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>17</v>
       </c>
-      <c r="AF11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>dGkjAuDb</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,167 +2548,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>4.65</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.4</v>
       </c>
-      <c r="J12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.91</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>17</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>1.8</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W12" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="X12" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AP12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ12" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="AR12" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW12" t="n">
         <v>3.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,167 +2730,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="J13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>1.91</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>2.35</v>
       </c>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AA13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>17</v>
       </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
       </c>
       <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL13" t="n">
         <v>11</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AM13" t="n">
         <v>23</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AN13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY13" t="n">
         <v>17</v>
       </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
+      <c r="AZ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA13" t="n">
         <v>41</v>
       </c>
-      <c r="AM13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
+      <c r="BB13" t="n">
         <v>101</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>501</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,157 +2922,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.2</v>
       </c>
-      <c r="L14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
         <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12</v>
       </c>
       <c r="AI14" t="n">
         <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="n">
         <v>151</v>
       </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,88 +3104,88 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
         <v>3.75</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
@@ -3194,67 +3194,67 @@
         <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
         <v>34</v>
       </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
       <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>34</v>
       </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,49 +3286,49 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,10 +3337,10 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
         <v>7.5</v>
@@ -3349,40 +3349,40 @@
         <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>34</v>
@@ -3397,10 +3397,10 @@
         <v>4.33</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
@@ -3409,13 +3409,13 @@
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3424,10 +3424,10 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,133 +3468,133 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
         <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>41</v>
       </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>23</v>
-      </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
         <v>8.5</v>
@@ -3603,19 +3603,19 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
         <v>29</v>
       </c>
-      <c r="AY17" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>
@@ -3630,182 +3630,546 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>pfJSJYU8</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nLv9a4qf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>rZtf1obm</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>16/11/2024</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Rayo Zuliano</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Caracas</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G20" t="n">
         <v>2.5</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>3.1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>2.72</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K20" t="n">
         <v>2.07</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L20" t="n">
         <v>3.25</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M20" t="n">
         <v>1.03</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N20" t="n">
         <v>6.65</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O20" t="n">
         <v>1.34</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P20" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R20" t="n">
         <v>1.65</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S20" t="n">
         <v>1.39</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T20" t="n">
         <v>2.57</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U20" t="n">
         <v>1.75</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V20" t="n">
         <v>1.85</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W20" t="n">
         <v>7.8</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X20" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y20" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z20" t="n">
         <v>27</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA20" t="n">
         <v>21</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB20" t="n">
         <v>32</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC20" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD20" t="n">
         <v>6</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE20" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF20" t="n">
         <v>70</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG20" t="n">
         <v>600</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH20" t="n">
         <v>7.8</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI20" t="n">
         <v>13</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ20" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK20" t="n">
         <v>32</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL20" t="n">
         <v>25</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM20" t="n">
         <v>35</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN20" t="n">
         <v>4.4</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO20" t="n">
         <v>12.5</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP20" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ20" t="n">
         <v>50</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR20" t="n">
         <v>80</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS20" t="n">
         <v>250</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT20" t="n">
         <v>2.57</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU20" t="n">
         <v>6.7</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV20" t="n">
         <v>55</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW20" t="n">
         <v>4.6</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AX20" t="n">
         <v>14.5</v>
       </c>
-      <c r="AY18" t="n">
+      <c r="AY20" t="n">
         <v>22</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="AZ20" t="n">
         <v>65</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BA20" t="n">
         <v>100</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BB20" t="n">
         <v>250</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BC20" t="n">
         <v>51</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -1496,7 +1496,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
@@ -2400,7 +2400,7 @@
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2469,7 +2469,7 @@
         <v>9.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
@@ -2478,13 +2478,13 @@
         <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
@@ -2520,7 +2520,7 @@
         <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
@@ -2567,64 +2567,64 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
         <v>2.18</v>
       </c>
-      <c r="L12" t="n">
-        <v>2.25</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.78</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W12" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA12" t="n">
         <v>50</v>
@@ -2633,13 +2633,13 @@
         <v>55</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
         <v>90</v>
@@ -2648,28 +2648,28 @@
         <v>800</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP12" t="n">
         <v>32</v>
@@ -2684,25 +2684,25 @@
         <v>450</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV12" t="n">
         <v>70</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX12" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AY12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
         <v>60</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H13" t="n">
         <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J13" t="n">
         <v>6.5</v>
@@ -2770,7 +2770,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2797,16 +2797,16 @@
         <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="n">
         <v>41</v>
@@ -2878,7 +2878,7 @@
         <v>3.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2934,7 +2934,7 @@
         <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
         <v>5.25</v>
@@ -2949,10 +2949,10 @@
         <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2973,10 +2973,10 @@
         <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
         <v>5.5</v>
@@ -2994,10 +2994,10 @@
         <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3018,7 +3018,7 @@
         <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>51</v>
@@ -3030,7 +3030,7 @@
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -3066,7 +3066,7 @@
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA14" t="n">
         <v>151</v>
@@ -3116,13 +3116,13 @@
         <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
@@ -3155,13 +3155,13 @@
         <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>8.5</v>
@@ -3170,7 +3170,7 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
         <v>15</v>
@@ -3179,7 +3179,7 @@
         <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>7</v>
@@ -3194,7 +3194,7 @@
         <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
@@ -3215,13 +3215,13 @@
         <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3233,19 +3233,19 @@
         <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX15" t="n">
         <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
         <v>81</v>
@@ -3254,7 +3254,7 @@
         <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
@@ -3343,7 +3343,7 @@
         <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -3379,7 +3379,7 @@
         <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
@@ -3397,7 +3397,7 @@
         <v>4.33</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>26</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
         <v>2.4</v>
@@ -3862,7 +3862,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3871,10 +3871,10 @@
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3898,7 +3898,7 @@
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
         <v>15</v>
@@ -3934,7 +3934,7 @@
         <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
@@ -3967,7 +3967,7 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX19" t="n">
         <v>26</v>
@@ -3979,7 +3979,7 @@
         <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB19" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1496,19 +1496,19 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1523,7 +1523,7 @@
         <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
         <v>9.5</v>
@@ -1532,7 +1532,7 @@
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -2406,7 +2406,7 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>pCxQFr9d</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6.25</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
         <v>6.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
         <v>2.5</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
       <c r="Q13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.57</v>
       </c>
-      <c r="R13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.29</v>
-      </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
         <v>41</v>
       </c>
       <c r="AC13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
         <v>15</v>
       </c>
-      <c r="AD13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>51</v>
       </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
         <v>34</v>
       </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="AW13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,167 +2912,167 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>6.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.25</v>
+        <v>1.38</v>
       </c>
       <c r="J14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>1.91</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
         <v>201</v>
       </c>
       <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL14" t="n">
         <v>11</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AM14" t="n">
         <v>23</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AN14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>19</v>
       </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="BA14" t="n">
         <v>41</v>
       </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>151</v>
-      </c>
       <c r="BB14" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,157 +3104,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.38</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
         <v>2.2</v>
       </c>
-      <c r="L15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
         <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
         <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
         <v>51</v>
       </c>
       <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>34</v>
       </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>29</v>
-      </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
         <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,55 +3286,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
         <v>3.75</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
         <v>1.8</v>
@@ -3343,31 +3343,31 @@
         <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
         <v>11</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
@@ -3376,43 +3376,43 @@
         <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>15</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
       <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
         <v>34</v>
       </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -3421,19 +3421,19 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
         <v>201</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,49 +3468,49 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3519,52 +3519,52 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
@@ -3582,7 +3582,7 @@
         <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -3591,13 +3591,13 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3609,7 +3609,7 @@
         <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,133 +3650,133 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
         <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI18" t="n">
         <v>15</v>
       </c>
-      <c r="AI18" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>41</v>
       </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>23</v>
-      </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>8.5</v>
@@ -3785,19 +3785,19 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY18" t="n">
         <v>29</v>
       </c>
-      <c r="AY18" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
         <v>201</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3832,85 +3832,85 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.33</v>
       </c>
-      <c r="P19" t="n">
+      <c r="T19" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.91</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
         <v>13</v>
       </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3919,16 +3919,16 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>51</v>
@@ -3940,25 +3940,25 @@
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
@@ -3967,22 +3967,22 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
         <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA19" t="n">
         <v>126</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,182 +3994,364 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>nLv9a4qf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>rZtf1obm</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>16/11/2024</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Rayo Zuliano</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Caracas</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>2.5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>3.1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>2.72</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>2.07</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>3.25</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M21" t="n">
         <v>1.03</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N21" t="n">
         <v>6.65</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O21" t="n">
         <v>1.34</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R21" t="n">
         <v>1.65</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S21" t="n">
         <v>1.39</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T21" t="n">
         <v>2.57</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U21" t="n">
         <v>1.75</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V21" t="n">
         <v>1.85</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W21" t="n">
         <v>7.8</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X21" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y21" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z21" t="n">
         <v>27</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA21" t="n">
         <v>21</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB21" t="n">
         <v>32</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC21" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD21" t="n">
         <v>6</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF21" t="n">
         <v>70</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG21" t="n">
         <v>600</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH21" t="n">
         <v>7.8</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI21" t="n">
         <v>13</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ21" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK21" t="n">
         <v>32</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL21" t="n">
         <v>25</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM21" t="n">
         <v>35</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN21" t="n">
         <v>4.4</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO21" t="n">
         <v>12.5</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP21" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ21" t="n">
         <v>50</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR21" t="n">
         <v>80</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS21" t="n">
         <v>250</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT21" t="n">
         <v>2.57</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AU21" t="n">
         <v>6.7</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AV21" t="n">
         <v>55</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AW21" t="n">
         <v>4.6</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="AX21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="AY21" t="n">
         <v>22</v>
       </c>
-      <c r="AZ20" t="n">
+      <c r="AZ21" t="n">
         <v>65</v>
       </c>
-      <c r="BA20" t="n">
+      <c r="BA21" t="n">
         <v>100</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BB21" t="n">
         <v>250</v>
       </c>
-      <c r="BC20" t="n">
+      <c r="BC21" t="n">
         <v>51</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BD21" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GAaHOioD</t>
+          <t>hSSQ1lIH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.44</v>
       </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.2</v>
       </c>
-      <c r="L2" t="n">
-        <v>8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X2" t="n">
         <v>9</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
         <v>8</v>
       </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15</v>
-      </c>
       <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
         <v>41</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>101</v>
-      </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fcAISRoS</t>
+          <t>GAaHOioD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,41 +910,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -953,16 +953,16 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,118 +971,118 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
         <v>8</v>
       </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
         <v>26</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP3" t="n">
         <v>23</v>
       </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR3" t="n">
         <v>51</v>
       </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY3" t="n">
         <v>51</v>
       </c>
-      <c r="AW3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
         <v>81</v>
       </c>
-      <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KvdzGl2M</t>
+          <t>fcAISRoS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.98</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>6.3</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
         <v>201</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
         <v>15</v>
       </c>
-      <c r="AI4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>45</v>
-      </c>
       <c r="AY4" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4CX6ASPq</t>
+          <t>KvdzGl2M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,169 +1284,169 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="H5" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>21</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW5" t="n">
         <v>8</v>
       </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CxyF86fd</t>
+          <t>4CX6ASPq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,88 +1466,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
         <v>17</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1556,79 +1556,79 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
         <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QHI1W9n3</t>
+          <t>CxyF86fd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,16 +1681,16 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1699,28 +1699,28 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
         <v>23</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>12</v>
@@ -1729,76 +1729,76 @@
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bVG9UmHF</t>
+          <t>QHI1W9n3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,169 +1830,169 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
         <v>13</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Qu1lN59k</t>
+          <t>bVG9UmHF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,67 +2012,67 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>7.7</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.87</v>
+        <v>2.35</v>
       </c>
       <c r="S9" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
@@ -2081,100 +2081,100 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
         <v>17</v>
       </c>
-      <c r="AB9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AD9" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nekcLqv2</t>
+          <t>Qu1lN59k</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,88 +2194,88 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="K10" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="T10" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="U10" t="n">
         <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
       </c>
       <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
         <v>9</v>
       </c>
-      <c r="Y10" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE10" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15.5</v>
       </c>
       <c r="AF10" t="n">
         <v>65</v>
@@ -2284,61 +2284,61 @@
         <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM10" t="n">
         <v>40</v>
       </c>
-      <c r="AM10" t="n">
-        <v>45</v>
-      </c>
       <c r="AN10" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AR10" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>60</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA10" t="n">
         <v>150</v>
@@ -2350,13 +2350,13 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>O4noaTdm</t>
+          <t>nekcLqv2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,169 +2376,169 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="K11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R11" t="n">
         <v>2.1</v>
       </c>
-      <c r="L11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.05</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC11" t="n">
         <v>9</v>
       </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>29</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AJ11" t="n">
         <v>15</v>
       </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AP11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX11" t="n">
         <v>23</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="AY11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dGkjAuDb</t>
+          <t>O4noaTdm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>5.1</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.18</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.95</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W12" t="n">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.3</v>
+        <v>9.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
         <v>12</v>
       </c>
-      <c r="AL12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY12" t="n">
         <v>29</v>
       </c>
-      <c r="AN12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pCxQFr9d</t>
+          <t>dGkjAuDb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2.18</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="T13" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="AJ13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK13" t="n">
         <v>12</v>
       </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
       <c r="AL13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM13" t="n">
         <v>29</v>
       </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>6.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AR13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC13" t="n">
         <v>81</v>
       </c>
-      <c r="AS13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="BD13" t="n">
         <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>pCxQFr9d</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.38</v>
+        <v>2.88</v>
       </c>
       <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N14" t="n">
         <v>6.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.5</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
       <c r="Q14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.57</v>
       </c>
-      <c r="R14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.29</v>
-      </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>17</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>51</v>
       </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
         <v>34</v>
       </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
+      <c r="AZ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC14" t="n">
         <v>51</v>
       </c>
-      <c r="AW14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>81</v>
-      </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,167 +3094,167 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="X15" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
         <v>201</v>
       </c>
       <c r="AH15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL15" t="n">
         <v>11</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AM15" t="n">
         <v>23</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AN15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY15" t="n">
         <v>17</v>
       </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
+      <c r="AZ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA15" t="n">
         <v>41</v>
       </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>151</v>
-      </c>
       <c r="BB15" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,157 +3286,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.38</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>51</v>
       </c>
       <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>34</v>
       </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>29</v>
-      </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
         <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,55 +3468,55 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
@@ -3525,31 +3525,31 @@
         <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
         <v>11</v>
       </c>
-      <c r="Y17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3558,43 +3558,43 @@
         <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>15</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
       <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
         <v>34</v>
       </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3603,19 +3603,19 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3650,49 +3650,49 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3701,52 +3701,52 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>34</v>
@@ -3764,7 +3764,7 @@
         <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
@@ -3773,13 +3773,13 @@
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
         <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3791,7 +3791,7 @@
         <v>17</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,133 +3832,133 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
         <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI19" t="n">
         <v>15</v>
       </c>
-      <c r="AI19" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>41</v>
       </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>23</v>
-      </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
@@ -3967,19 +3967,19 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY19" t="n">
         <v>29</v>
       </c>
-      <c r="AY19" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
         <v>201</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4014,103 +4014,103 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.8</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
         <v>15</v>
       </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AI20" t="n">
         <v>29</v>
       </c>
-      <c r="AC20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>51</v>
@@ -4122,49 +4122,49 @@
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
       </c>
       <c r="AZ20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA20" t="n">
         <v>126</v>
       </c>
       <c r="BB20" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,182 +4176,364 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>nLv9a4qf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>rZtf1obm</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>16/11/2024</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Rayo Zuliano</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Caracas</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>2.5</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>3.1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>2.72</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K22" t="n">
         <v>2.07</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>3.25</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M22" t="n">
         <v>1.03</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N22" t="n">
         <v>6.65</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O22" t="n">
         <v>1.34</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R22" t="n">
         <v>1.65</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S22" t="n">
         <v>1.39</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T22" t="n">
         <v>2.57</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U22" t="n">
         <v>1.75</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V22" t="n">
         <v>1.85</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W22" t="n">
         <v>7.8</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X22" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y22" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z22" t="n">
         <v>27</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA22" t="n">
         <v>21</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB22" t="n">
         <v>32</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC22" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD22" t="n">
         <v>6</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE22" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF22" t="n">
         <v>70</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG22" t="n">
         <v>600</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH22" t="n">
         <v>7.8</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI22" t="n">
         <v>13</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ22" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK22" t="n">
         <v>32</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL22" t="n">
         <v>25</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM22" t="n">
         <v>35</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN22" t="n">
         <v>4.4</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO22" t="n">
         <v>12.5</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP22" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ22" t="n">
         <v>50</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AR22" t="n">
         <v>80</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS22" t="n">
         <v>250</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AT22" t="n">
         <v>2.57</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="AU22" t="n">
         <v>6.7</v>
       </c>
-      <c r="AV21" t="n">
+      <c r="AV22" t="n">
         <v>55</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AW22" t="n">
         <v>4.6</v>
       </c>
-      <c r="AX21" t="n">
+      <c r="AX22" t="n">
         <v>14.5</v>
       </c>
-      <c r="AY21" t="n">
+      <c r="AY22" t="n">
         <v>22</v>
       </c>
-      <c r="AZ21" t="n">
+      <c r="AZ22" t="n">
         <v>65</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="BA22" t="n">
         <v>100</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BB22" t="n">
         <v>250</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BC22" t="n">
         <v>51</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BD22" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,19 +762,19 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -783,10 +783,10 @@
         <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -864,7 +864,7 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -876,10 +876,10 @@
         <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fcAISRoS</t>
+          <t>2BPmIXwm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,47 +1092,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1147,124 +1147,124 @@
         <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA4" t="n">
         <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KvdzGl2M</t>
+          <t>fcAISRoS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,157 +1284,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.98</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>6.3</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
         <v>201</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
         <v>15</v>
       </c>
-      <c r="AI5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>45</v>
-      </c>
       <c r="AY5" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4CX6ASPq</t>
+          <t>KvdzGl2M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,169 +1466,169 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9</v>
       </c>
-      <c r="X6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>21</v>
       </c>
-      <c r="AC6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>23</v>
-      </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW6" t="n">
         <v>8</v>
       </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>7</v>
-      </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CxyF86fd</t>
+          <t>4CX6ASPq</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,88 +1648,88 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
         <v>17</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,79 +1738,79 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
         <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QHI1W9n3</t>
+          <t>CxyF86fd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,31 +1830,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1863,16 +1863,16 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1881,28 +1881,28 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
         <v>23</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1911,76 +1911,76 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>501</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bVG9UmHF</t>
+          <t>QHI1W9n3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,169 +2012,169 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
         <v>13</v>
       </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Qu1lN59k</t>
+          <t>bVG9UmHF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,67 +2194,67 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L10" t="n">
         <v>3.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>7.7</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.87</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2263,100 +2263,100 @@
         <v>21</v>
       </c>
       <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
         <v>17</v>
       </c>
-      <c r="AB10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AD10" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nekcLqv2</t>
+          <t>Qu1lN59k</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,88 +2376,88 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="K11" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="T11" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="U11" t="n">
         <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W11" t="n">
         <v>7.6</v>
       </c>
       <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
         <v>9</v>
       </c>
-      <c r="Y11" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE11" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15.5</v>
       </c>
       <c r="AF11" t="n">
         <v>65</v>
@@ -2466,61 +2466,61 @@
         <v>500</v>
       </c>
       <c r="AH11" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AL11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM11" t="n">
         <v>40</v>
       </c>
-      <c r="AM11" t="n">
-        <v>45</v>
-      </c>
       <c r="AN11" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AR11" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
         <v>60</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA11" t="n">
         <v>150</v>
@@ -2532,13 +2532,13 @@
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>O4noaTdm</t>
+          <t>nekcLqv2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,169 +2558,169 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R12" t="n">
         <v>2.1</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC12" t="n">
         <v>9</v>
       </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI12" t="n">
         <v>29</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AJ12" t="n">
         <v>15</v>
       </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AP12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX12" t="n">
         <v>23</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="AY12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
         <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dGkjAuDb</t>
+          <t>O4noaTdm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>5.1</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.18</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.95</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W13" t="n">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.3</v>
+        <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
         <v>12</v>
       </c>
-      <c r="AL13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
         <v>29</v>
       </c>
-      <c r="AN13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pCxQFr9d</t>
+          <t>dGkjAuDb</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="K14" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>2.18</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>26</v>
       </c>
-      <c r="AA14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV14" t="n">
+      <c r="BA14" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC14" t="n">
         <v>81</v>
       </c>
-      <c r="AW14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>pCxQFr9d</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6.25</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.38</v>
+        <v>2.75</v>
       </c>
       <c r="J15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
         <v>6.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="O15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P15" t="n">
         <v>2.5</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
       <c r="Q15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.57</v>
       </c>
-      <c r="R15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.29</v>
-      </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO15" t="n">
         <v>17</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>34</v>
       </c>
       <c r="AP15" t="n">
         <v>34</v>
       </c>
       <c r="AQ15" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>51</v>
       </c>
-      <c r="AW15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>19</v>
-      </c>
       <c r="BA15" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,167 +3276,167 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.8</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.25</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
         <v>201</v>
       </c>
       <c r="AH16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>10</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AL16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM16" t="n">
         <v>23</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AN16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>19</v>
       </c>
-      <c r="AK16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL16" t="n">
+      <c r="BA16" t="n">
         <v>41</v>
       </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>151</v>
-      </c>
       <c r="BB16" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,157 +3468,157 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.38</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
         <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
         <v>51</v>
       </c>
       <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>34</v>
       </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>29</v>
-      </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW17" t="n">
         <v>6.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,37 +3650,37 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -3689,16 +3689,16 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
         <v>1.8</v>
@@ -3707,31 +3707,31 @@
         <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
         <v>11</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3740,43 +3740,43 @@
         <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>15</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
       <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
         <v>34</v>
       </c>
-      <c r="AL18" t="n">
-        <v>26</v>
-      </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3785,19 +3785,19 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
         <v>201</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3832,49 +3832,49 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J19" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3883,52 +3883,52 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>34</v>
@@ -3946,7 +3946,7 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3955,13 +3955,13 @@
         <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
         <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
@@ -3973,7 +3973,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,133 +4014,133 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13</v>
-      </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI20" t="n">
         <v>15</v>
       </c>
-      <c r="AI20" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>41</v>
       </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>23</v>
-      </c>
       <c r="AR20" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
@@ -4149,19 +4149,19 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY20" t="n">
         <v>29</v>
       </c>
-      <c r="AY20" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ20" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
         <v>201</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4196,103 +4196,103 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.8</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
         <v>15</v>
       </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="AI21" t="n">
         <v>29</v>
       </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
@@ -4304,49 +4304,49 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
         <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
         <v>126</v>
       </c>
       <c r="BB21" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,182 +4358,364 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>nLv9a4qf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>rZtf1obm</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>16/11/2024</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Rayo Zuliano</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Caracas</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>2.5</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>3.1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>2.72</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>2.07</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>3.25</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M23" t="n">
         <v>1.03</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N23" t="n">
         <v>6.65</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O23" t="n">
         <v>1.34</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R23" t="n">
         <v>1.65</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S23" t="n">
         <v>1.39</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T23" t="n">
         <v>2.57</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U23" t="n">
         <v>1.75</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V23" t="n">
         <v>1.85</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W23" t="n">
         <v>7.8</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X23" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y23" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z23" t="n">
         <v>27</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA23" t="n">
         <v>21</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB23" t="n">
         <v>32</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC23" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD23" t="n">
         <v>6</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE23" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF23" t="n">
         <v>70</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG23" t="n">
         <v>600</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH23" t="n">
         <v>7.8</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI23" t="n">
         <v>13</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ23" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK23" t="n">
         <v>32</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL23" t="n">
         <v>25</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM23" t="n">
         <v>35</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN23" t="n">
         <v>4.4</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO23" t="n">
         <v>12.5</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP23" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AQ23" t="n">
         <v>50</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AR23" t="n">
         <v>80</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS23" t="n">
         <v>250</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT23" t="n">
         <v>2.57</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AU23" t="n">
         <v>6.7</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV23" t="n">
         <v>55</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AW23" t="n">
         <v>4.6</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AX23" t="n">
         <v>14.5</v>
       </c>
-      <c r="AY22" t="n">
+      <c r="AY23" t="n">
         <v>22</v>
       </c>
-      <c r="AZ22" t="n">
+      <c r="AZ23" t="n">
         <v>65</v>
       </c>
-      <c r="BA22" t="n">
+      <c r="BA23" t="n">
         <v>100</v>
       </c>
-      <c r="BB22" t="n">
+      <c r="BB23" t="n">
         <v>250</v>
       </c>
-      <c r="BC22" t="n">
+      <c r="BC23" t="n">
         <v>51</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BD23" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,16 +771,16 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -1129,16 +1129,16 @@
         <v>2.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1189,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
@@ -1726,7 +1726,7 @@
         <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1738,13 +1738,13 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
@@ -1753,7 +1753,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
         <v>3.75</v>
@@ -1762,10 +1762,10 @@
         <v>7.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1783,10 +1783,10 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.6</v>
@@ -3131,10 +3131,10 @@
         <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.5</v>
@@ -3173,7 +3173,7 @@
         <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3194,7 +3194,7 @@
         <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3203,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3212,7 +3212,7 @@
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
         <v>17</v>
@@ -3495,28 +3495,28 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U17" t="n">
         <v>2.25</v>
@@ -3525,7 +3525,7 @@
         <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
         <v>7</v>
@@ -3570,13 +3570,13 @@
         <v>51</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -3585,7 +3585,7 @@
         <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
         <v>67</v>
@@ -3594,10 +3594,10 @@
         <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
@@ -4405,10 +4405,10 @@
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -4441,7 +4441,7 @@
         <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
         <v>15</v>
@@ -4453,16 +4453,16 @@
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
         <v>351</v>
@@ -4492,7 +4492,7 @@
         <v>9.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>34</v>
@@ -4522,7 +4522,7 @@
         <v>34</v>
       </c>
       <c r="AZ22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA22" t="n">
         <v>126</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,172 +4550,354 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>1.14</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.72</v>
+        <v>17</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="K23" t="n">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>6.65</v>
+        <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U23" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>12.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AA23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP23" t="n">
         <v>21</v>
       </c>
-      <c r="AB23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AQ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU23" t="n">
         <v>13</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AV23" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.6</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>14.5</v>
+        <v>67</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="AZ23" t="n">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="BA23" t="n">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="BB23" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="BC23" t="n">
         <v>51</v>
       </c>
       <c r="BD23" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>rZtf1obm</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD24" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,7 +1314,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -3316,7 +3316,7 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
         <v>1.17</v>
@@ -3668,7 +3668,7 @@
         <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
@@ -4217,7 +4217,7 @@
         <v>2.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L21" t="n">
         <v>5.5</v>
@@ -4387,34 +4387,34 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>2.1</v>
@@ -4435,16 +4435,16 @@
         <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
         <v>15</v>
@@ -4453,16 +4453,16 @@
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
         <v>351</v>
@@ -4471,7 +4471,7 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4486,7 +4486,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO22" t="n">
         <v>9.5</v>
@@ -4501,22 +4501,22 @@
         <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
         <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY22" t="n">
         <v>34</v>
@@ -4898,6 +4898,188 @@
         <v>51</v>
       </c>
       <c r="BD24" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>QH0N67zQ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Dep. Tachira</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>600</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD25" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD25"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -771,31 +771,31 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>9</v>
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
@@ -840,10 +840,10 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
         <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -855,19 +855,19 @@
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -879,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>81</v>
@@ -888,7 +888,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1111,34 +1111,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1147,37 +1147,37 @@
         <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1186,28 +1186,28 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>6</v>
@@ -1222,37 +1222,37 @@
         <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>3.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1317,16 +1317,16 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -2168,7 +2168,7 @@
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
         <v>2.88</v>
@@ -2764,13 +2764,13 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2815,7 +2815,7 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2827,13 +2827,13 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH13" t="n">
         <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
@@ -2842,13 +2842,13 @@
         <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
         <v>12</v>
@@ -2884,7 +2884,7 @@
         <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA13" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.25</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.38</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X16" t="n">
         <v>6.5</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>17</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>21</v>
       </c>
-      <c r="X16" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AF16" t="n">
         <v>81</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
       </c>
       <c r="AG16" t="n">
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.5</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
         <v>23</v>
       </c>
-      <c r="AN16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,167 +3458,167 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.8</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.25</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM17" t="n">
         <v>23</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
       <c r="AN17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT17" t="n">
         <v>3.5</v>
       </c>
-      <c r="AO17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ17" t="n">
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA17" t="n">
         <v>41</v>
       </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>151</v>
-      </c>
       <c r="BB17" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3650,157 +3650,157 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
         <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
         <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>41</v>
       </c>
-      <c r="AN18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>29</v>
-      </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW18" t="n">
         <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,37 +3832,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
@@ -3877,31 +3877,31 @@
         <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X19" t="n">
         <v>8</v>
       </c>
-      <c r="X19" t="n">
-        <v>11</v>
-      </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
@@ -3910,79 +3910,79 @@
         <v>9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>15</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>12</v>
-      </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4014,49 +4014,49 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4065,52 +4065,52 @@
         <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
         <v>34</v>
@@ -4128,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>41</v>
@@ -4137,13 +4137,13 @@
         <v>67</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
         <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
@@ -4155,7 +4155,7 @@
         <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,133 +4196,133 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>11</v>
       </c>
-      <c r="AA21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO21" t="n">
         <v>13</v>
       </c>
-      <c r="AD21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL21" t="n">
+      <c r="AP21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>41</v>
       </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>23</v>
-      </c>
       <c r="AR21" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
         <v>8.5</v>
@@ -4331,19 +4331,19 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY21" t="n">
         <v>29</v>
       </c>
-      <c r="AY21" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
         <v>201</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4378,64 +4378,64 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
@@ -4444,37 +4444,37 @@
         <v>8.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
         <v>13</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH22" t="n">
         <v>15</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AI22" t="n">
         <v>29</v>
       </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>51</v>
@@ -4489,31 +4489,31 @@
         <v>3.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>23</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>34</v>
-      </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX22" t="n">
         <v>29</v>
@@ -4528,7 +4528,7 @@
         <v>126</v>
       </c>
       <c r="BB22" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
         <v>17</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>15</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>17</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7</v>
-      </c>
-      <c r="X23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW23" t="n">
         <v>6</v>
       </c>
-      <c r="AA23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL23" t="n">
+      <c r="AX23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA23" t="n">
         <v>126</v>
       </c>
-      <c r="AM23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>351</v>
-      </c>
       <c r="BB23" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,167 +4732,167 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.32</v>
+        <v>1.14</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>2.82</v>
+        <v>1.53</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L24" t="n">
-        <v>3.45</v>
+        <v>15</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.7</v>
+        <v>17</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.77</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="T24" t="n">
-        <v>2.57</v>
+        <v>3.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>11.25</v>
+        <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="AF24" t="n">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="AG24" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW24" t="n">
         <v>15</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="AY24" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="AZ24" t="n">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="BA24" t="n">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="BB24" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4904,182 +4904,364 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>rZtf1obm</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>QH0N67zQ</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>16/11/2024</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Dep. Tachira</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Zamora</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>1.3</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>4.3</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>11</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J26" t="n">
         <v>1.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>2.22</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>8.75</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>1.01</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N26" t="n">
         <v>7.6</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O26" t="n">
         <v>1.26</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>3.15</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q26" t="n">
         <v>1.83</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R26" t="n">
         <v>1.87</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S26" t="n">
         <v>1.4</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T26" t="n">
         <v>2.52</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U26" t="n">
         <v>2.18</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V26" t="n">
         <v>1.53</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W26" t="n">
         <v>5.6</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X26" t="n">
         <v>5.4</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y26" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z26" t="n">
         <v>7.6</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA26" t="n">
         <v>12</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB26" t="n">
         <v>35</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC26" t="n">
         <v>10</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD26" t="n">
         <v>9</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AE26" t="n">
         <v>24</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF26" t="n">
         <v>150</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG26" t="n">
         <v>201</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AH26" t="n">
         <v>26</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AI26" t="n">
         <v>90</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AJ26" t="n">
         <v>35</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AK26" t="n">
         <v>450</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AL26" t="n">
         <v>175</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AM26" t="n">
         <v>120</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AN26" t="n">
         <v>2.92</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AO26" t="n">
         <v>5.9</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AP26" t="n">
         <v>18.5</v>
       </c>
-      <c r="AQ25" t="n">
+      <c r="AQ26" t="n">
         <v>16.5</v>
       </c>
-      <c r="AR25" t="n">
+      <c r="AR26" t="n">
         <v>55</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="AS26" t="n">
         <v>300</v>
       </c>
-      <c r="AT25" t="n">
+      <c r="AT26" t="n">
         <v>2.55</v>
       </c>
-      <c r="AU25" t="n">
+      <c r="AU26" t="n">
         <v>9</v>
       </c>
-      <c r="AV25" t="n">
+      <c r="AV26" t="n">
         <v>100</v>
       </c>
-      <c r="AW25" t="n">
+      <c r="AW26" t="n">
         <v>10.5</v>
       </c>
-      <c r="AX25" t="n">
+      <c r="AX26" t="n">
         <v>65</v>
       </c>
-      <c r="AY25" t="n">
+      <c r="AY26" t="n">
         <v>60</v>
       </c>
-      <c r="AZ25" t="n">
+      <c r="AZ26" t="n">
         <v>600</v>
       </c>
-      <c r="BA25" t="n">
+      <c r="BA26" t="n">
         <v>500</v>
       </c>
-      <c r="BB25" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD25" t="n">
+      <c r="BB26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD26" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,58 +750,58 @@
         <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
@@ -810,25 +810,25 @@
         <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -852,31 +852,31 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -885,10 +885,10 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fcAISRoS</t>
+          <t>QL64Rg1f</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.75</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
         <v>8</v>
       </c>
-      <c r="X5" t="n">
-        <v>12</v>
-      </c>
       <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
         <v>10</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
         <v>26</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>21</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AQ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY5" t="n">
         <v>34</v>
       </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB5" t="n">
         <v>251</v>
       </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="BC5" t="n">
         <v>81</v>
       </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BD5" t="n">
         <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KvdzGl2M</t>
+          <t>fcAISRoS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
         <v>201</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX6" t="n">
         <v>15</v>
       </c>
-      <c r="AI6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>45</v>
-      </c>
       <c r="AY6" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4CX6ASPq</t>
+          <t>KvdzGl2M</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,169 +1648,169 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9</v>
       </c>
-      <c r="X7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19</v>
-      </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW7" t="n">
         <v>8</v>
       </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CxyF86fd</t>
+          <t>4CX6ASPq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,55 +1830,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
@@ -1890,109 +1890,109 @@
         <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
         <v>15</v>
       </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>21</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AR8" t="n">
         <v>41</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" t="n">
         <v>29</v>
       </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QHI1W9n3</t>
+          <t>CxyF86fd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,31 +2012,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2045,16 +2045,16 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2063,28 +2063,28 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
         <v>23</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -2093,88 +2093,88 @@
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bVG9UmHF</t>
+          <t>QHI1W9n3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,169 +2194,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
         <v>13</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Qu1lN59k</t>
+          <t>bVG9UmHF</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,67 +2376,67 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>7.7</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2445,100 +2445,100 @@
         <v>21</v>
       </c>
       <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
         <v>17</v>
       </c>
-      <c r="AB11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AD11" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>nekcLqv2</t>
+          <t>Qu1lN59k</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,88 +2558,88 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="K12" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="T12" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="U12" t="n">
         <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
         <v>7.6</v>
       </c>
       <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
         <v>9</v>
       </c>
-      <c r="Y12" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE12" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15.5</v>
       </c>
       <c r="AF12" t="n">
         <v>65</v>
@@ -2648,61 +2648,61 @@
         <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM12" t="n">
         <v>40</v>
       </c>
-      <c r="AM12" t="n">
-        <v>45</v>
-      </c>
       <c r="AN12" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AR12" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA12" t="n">
         <v>150</v>
@@ -2714,13 +2714,13 @@
         <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>O4noaTdm</t>
+          <t>nekcLqv2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,169 +2740,169 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.05</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>15</v>
       </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AP13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX13" t="n">
         <v>23</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AY13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
         <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dGkjAuDb</t>
+          <t>O4noaTdm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
         <v>5</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM14" t="n">
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
         <v>29</v>
       </c>
-      <c r="AN14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pCxQFr9d</t>
+          <t>dGkjAuDb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="X15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK15" t="n">
         <v>12</v>
       </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AL15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM15" t="n">
         <v>29</v>
       </c>
-      <c r="AA15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AN15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>26</v>
       </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
+      <c r="BA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC15" t="n">
         <v>81</v>
       </c>
-      <c r="AW15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>pCxQFr9d</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,157 +3286,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
         <v>7</v>
       </c>
-      <c r="J16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.1</v>
       </c>
-      <c r="L16" t="n">
+      <c r="V16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W16" t="n">
         <v>7</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU16" t="n">
         <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X17" t="n">
         <v>6.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>17</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>21</v>
       </c>
-      <c r="X17" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AF17" t="n">
         <v>81</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
       </c>
       <c r="AG17" t="n">
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.5</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
-        <v>9.5</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP17" t="n">
         <v>23</v>
       </c>
-      <c r="AN17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
         <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="BA17" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BB17" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,167 +3640,167 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>5.25</v>
+        <v>1.33</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>1.83</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="T18" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM18" t="n">
         <v>23</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AS18" t="n">
         <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX18" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX18" t="n">
-        <v>29</v>
-      </c>
       <c r="AY18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA18" t="n">
         <v>41</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>151</v>
-      </c>
       <c r="BB18" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3832,157 +3832,157 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W19" t="n">
         <v>5</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="X19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y19" t="n">
         <v>9.5</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD19" t="n">
         <v>6.5</v>
       </c>
-      <c r="X19" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG19" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>51</v>
       </c>
       <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>41</v>
       </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>29</v>
-      </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW19" t="n">
         <v>6.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,37 +4014,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -4059,31 +4059,31 @@
         <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X20" t="n">
         <v>8</v>
       </c>
-      <c r="X20" t="n">
-        <v>11</v>
-      </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
         <v>29</v>
@@ -4092,79 +4092,79 @@
         <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>15</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>12</v>
-      </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4196,97 +4196,97 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -4298,7 +4298,7 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
@@ -4310,7 +4310,7 @@
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4319,13 +4319,13 @@
         <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4337,7 +4337,7 @@
         <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,133 +4378,133 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
         <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH22" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AI22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>12</v>
       </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
       <c r="AK22" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
         <v>8.5</v>
@@ -4513,19 +4513,19 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY22" t="n">
         <v>29</v>
       </c>
-      <c r="AY22" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
         <v>201</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,85 +4560,85 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.8</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>10</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD23" t="n">
         <v>8</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4647,16 +4647,16 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>51</v>
@@ -4668,37 +4668,37 @@
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>23</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>34</v>
-      </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
         <v>34</v>
@@ -4710,7 +4710,7 @@
         <v>126</v>
       </c>
       <c r="BB23" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
         <v>17</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>15</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
-        <v>17</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7</v>
-      </c>
-      <c r="X24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AK24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
         <v>6</v>
       </c>
-      <c r="AA24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL24" t="n">
+      <c r="AX24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA24" t="n">
         <v>126</v>
       </c>
-      <c r="AM24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>351</v>
-      </c>
       <c r="BB24" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,167 +4914,167 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.32</v>
+        <v>1.14</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J25" t="n">
-        <v>2.82</v>
+        <v>1.53</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L25" t="n">
-        <v>3.45</v>
+        <v>15</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>6.7</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.77</v>
+        <v>4.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="S25" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="T25" t="n">
-        <v>2.57</v>
+        <v>3.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>11.25</v>
+        <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="n">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW25" t="n">
         <v>15</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="AY25" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="AZ25" t="n">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="BA25" t="n">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="BB25" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5086,182 +5086,546 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>tEOPoB3F</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>rZtf1obm</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>QH0N67zQ</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>16/11/2024</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Dep. Tachira</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Zamora</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G28" t="n">
         <v>1.3</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H28" t="n">
         <v>4.3</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I28" t="n">
         <v>11</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J28" t="n">
         <v>1.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K28" t="n">
         <v>2.22</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L28" t="n">
         <v>8.75</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M28" t="n">
         <v>1.01</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N28" t="n">
         <v>7.6</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O28" t="n">
         <v>1.26</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P28" t="n">
         <v>3.15</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q28" t="n">
         <v>1.83</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R28" t="n">
         <v>1.87</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S28" t="n">
         <v>1.4</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T28" t="n">
         <v>2.52</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U28" t="n">
         <v>2.18</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V28" t="n">
         <v>1.53</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W28" t="n">
         <v>5.6</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X28" t="n">
         <v>5.4</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y28" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z28" t="n">
         <v>7.6</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA28" t="n">
         <v>12</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB28" t="n">
         <v>35</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC28" t="n">
         <v>10</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD28" t="n">
         <v>9</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE28" t="n">
         <v>24</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF28" t="n">
         <v>150</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG28" t="n">
         <v>201</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH28" t="n">
         <v>26</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI28" t="n">
         <v>90</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AJ28" t="n">
         <v>35</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AK28" t="n">
         <v>450</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL28" t="n">
         <v>175</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AM28" t="n">
         <v>120</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN28" t="n">
         <v>2.92</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AO28" t="n">
         <v>5.9</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AP28" t="n">
         <v>18.5</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AQ28" t="n">
         <v>16.5</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AR28" t="n">
         <v>55</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AS28" t="n">
         <v>300</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AT28" t="n">
         <v>2.55</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AU28" t="n">
         <v>9</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AV28" t="n">
         <v>100</v>
       </c>
-      <c r="AW26" t="n">
+      <c r="AW28" t="n">
         <v>10.5</v>
       </c>
-      <c r="AX26" t="n">
+      <c r="AX28" t="n">
         <v>65</v>
       </c>
-      <c r="AY26" t="n">
+      <c r="AY28" t="n">
         <v>60</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="AZ28" t="n">
         <v>600</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BA28" t="n">
         <v>500</v>
       </c>
-      <c r="BB26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD26" t="n">
+      <c r="BB28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +768,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -777,16 +777,16 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -861,13 +861,13 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -971,22 +971,22 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -1001,10 +1001,10 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1013,16 +1013,16 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -1043,25 +1043,25 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>201</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1344,13 +1344,13 @@
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1374,10 +1374,10 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>17</v>
@@ -1401,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1419,10 +1419,10 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fcAISRoS</t>
+          <t>8pd9QDG0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>1.85</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1499,136 +1499,136 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
       </c>
       <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
         <v>6</v>
       </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AO6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
         <v>301</v>
       </c>
-      <c r="AH6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KvdzGl2M</t>
+          <t>fcAISRoS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
-        <v>4.25</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="n">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>6.3</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>15</v>
       </c>
-      <c r="AI7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>45</v>
-      </c>
       <c r="AY7" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4CX6ASPq</t>
+          <t>KvdzGl2M</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,169 +1830,169 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>2.67</v>
       </c>
       <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW8" t="n">
         <v>8</v>
       </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7</v>
-      </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CxyF86fd</t>
+          <t>4CX6ASPq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,55 +2012,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
         <v>1.7</v>
@@ -2072,109 +2072,109 @@
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
         <v>15</v>
       </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>21</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AR9" t="n">
         <v>41</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
         <v>29</v>
       </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>QHI1W9n3</t>
+          <t>CxyF86fd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,31 +2194,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2227,16 +2227,16 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2245,28 +2245,28 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
         <v>23</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
@@ -2275,76 +2275,76 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>501</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bVG9UmHF</t>
+          <t>QHI1W9n3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,169 +2376,169 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Qu1lN59k</t>
+          <t>bVG9UmHF</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,67 +2558,67 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
         <v>3.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>7.7</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
@@ -2627,100 +2627,100 @@
         <v>21</v>
       </c>
       <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
         <v>17</v>
       </c>
-      <c r="AB12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AD12" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>nekcLqv2</t>
+          <t>Qu1lN59k</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,88 +2740,88 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="K13" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="U13" t="n">
         <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W13" t="n">
         <v>7.6</v>
       </c>
       <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
         <v>9</v>
       </c>
-      <c r="Y13" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE13" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15.5</v>
       </c>
       <c r="AF13" t="n">
         <v>65</v>
@@ -2830,61 +2830,61 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM13" t="n">
         <v>40</v>
       </c>
-      <c r="AM13" t="n">
-        <v>45</v>
-      </c>
       <c r="AN13" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AR13" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
         <v>60</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA13" t="n">
         <v>150</v>
@@ -2896,13 +2896,13 @@
         <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>O4noaTdm</t>
+          <t>nekcLqv2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,169 +2922,169 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V14" t="n">
         <v>2.05</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>15</v>
       </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AP14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX14" t="n">
         <v>23</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AY14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
         <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dGkjAuDb</t>
+          <t>O4noaTdm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
         <v>5</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AX15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY15" t="n">
         <v>29</v>
       </c>
-      <c r="AN15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pCxQFr9d</t>
+          <t>dGkjAuDb</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.8</v>
       </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="X16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK16" t="n">
         <v>12</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AL16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM16" t="n">
         <v>29</v>
       </c>
-      <c r="AA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AN16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>26</v>
       </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
+      <c r="BA16" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC16" t="n">
         <v>81</v>
       </c>
-      <c r="AW16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>pCxQFr9d</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,157 +3468,157 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
         <v>7</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="V17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W17" t="n">
         <v>7</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU17" t="n">
         <v>9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X18" t="n">
         <v>6.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>17</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>21</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX18" t="n">
         <v>41</v>
       </c>
-      <c r="Y18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AY18" t="n">
         <v>41</v>
       </c>
-      <c r="AC18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ18" t="n">
+      <c r="AZ18" t="n">
         <v>151</v>
       </c>
-      <c r="AR18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>17</v>
-      </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,167 +3822,167 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.83</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>1.53</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.7</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="S19" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="T19" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="X19" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX19" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
+      <c r="AY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA19" t="n">
         <v>41</v>
       </c>
-      <c r="AR19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>151</v>
-      </c>
       <c r="BB19" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4014,157 +4014,157 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T20" t="n">
         <v>2.2</v>
       </c>
-      <c r="L20" t="n">
+      <c r="U20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W20" t="n">
         <v>5</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>6.5</v>
       </c>
-      <c r="X20" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
         <v>51</v>
       </c>
       <c r="AL20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>41</v>
       </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>29</v>
-      </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW20" t="n">
         <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,31 +4196,31 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -4235,37 +4235,37 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
@@ -4274,79 +4274,79 @@
         <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>15</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
         <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4378,12 +4378,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -4393,97 +4393,97 @@
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
         <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
         <v>4.33</v>
@@ -4492,7 +4492,7 @@
         <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -4501,13 +4501,13 @@
         <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4519,7 +4519,7 @@
         <v>17</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,133 +4560,133 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>11</v>
       </c>
-      <c r="AA23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH23" t="n">
+      <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO23" t="n">
         <v>15</v>
       </c>
-      <c r="AI23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AP23" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4695,19 +4695,19 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AX23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY23" t="n">
         <v>29</v>
       </c>
-      <c r="AY23" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="n">
         <v>201</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4742,103 +4742,103 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P24" t="n">
         <v>4.33</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.33</v>
       </c>
-      <c r="P24" t="n">
+      <c r="T24" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V24" t="n">
         <v>2</v>
       </c>
-      <c r="V24" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W24" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
         <v>8</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE24" t="n">
         <v>15</v>
       </c>
-      <c r="AA24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
         <v>29</v>
       </c>
-      <c r="AC24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AJ24" t="n">
         <v>17</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>51</v>
@@ -4850,37 +4850,37 @@
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>23</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>34</v>
-      </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY24" t="n">
         <v>34</v>
@@ -4889,10 +4889,10 @@
         <v>101</v>
       </c>
       <c r="BA24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.14</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
         <v>17</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L25" t="n">
-        <v>15</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
         <v>17</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W25" t="n">
-        <v>7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW25" t="n">
         <v>6</v>
       </c>
-      <c r="AA25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AX25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB25" t="n">
         <v>251</v>
       </c>
-      <c r="AL25" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>501</v>
-      </c>
       <c r="BC25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,167 +5096,167 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>1.14</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="J26" t="n">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="K26" t="n">
-        <v>2.18</v>
+        <v>2.75</v>
       </c>
       <c r="L26" t="n">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>7.9</v>
+        <v>17</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T26" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="V26" t="n">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>10.25</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
         <v>15</v>
       </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AE26" t="n">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="n">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="AG26" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="n">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="n">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="AM26" t="n">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>10.25</v>
+        <v>4.75</v>
       </c>
       <c r="AP26" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AS26" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.7</v>
+        <v>13</v>
       </c>
       <c r="AV26" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="AX26" t="n">
-        <v>18.5</v>
+        <v>67</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AZ26" t="n">
-        <v>90</v>
+        <v>351</v>
       </c>
       <c r="BA26" t="n">
-        <v>110</v>
+        <v>351</v>
       </c>
       <c r="BB26" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,164 +5278,164 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L27" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.77</v>
+        <v>3.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="T27" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="X27" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AB27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM27" t="n">
         <v>30</v>
       </c>
-      <c r="AC27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="AN27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>37</v>
       </c>
-      <c r="AL27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>45</v>
-      </c>
       <c r="AR27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS27" t="n">
         <v>200</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV27" t="n">
         <v>55</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BA27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB27" t="n">
         <v>250</v>
@@ -5450,182 +5450,364 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>rZtf1obm</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>QH0N67zQ</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>16/11/2024</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Dep. Tachira</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Zamora</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>1.3</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>4.3</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>11</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J29" t="n">
         <v>1.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K29" t="n">
         <v>2.22</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>8.75</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M29" t="n">
         <v>1.01</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N29" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z29" t="n">
         <v>7.6</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA28" t="n">
+      <c r="AA29" t="n">
         <v>12</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AB29" t="n">
         <v>35</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC29" t="n">
         <v>10</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AD29" t="n">
         <v>9</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AE29" t="n">
         <v>24</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AF29" t="n">
         <v>150</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AG29" t="n">
         <v>201</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AH29" t="n">
         <v>26</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AI29" t="n">
         <v>90</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AJ29" t="n">
         <v>35</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AK29" t="n">
         <v>450</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AL29" t="n">
         <v>175</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AM29" t="n">
         <v>120</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AN29" t="n">
         <v>2.92</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AO29" t="n">
         <v>5.9</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AP29" t="n">
         <v>18.5</v>
       </c>
-      <c r="AQ28" t="n">
+      <c r="AQ29" t="n">
         <v>16.5</v>
       </c>
-      <c r="AR28" t="n">
+      <c r="AR29" t="n">
         <v>55</v>
       </c>
-      <c r="AS28" t="n">
+      <c r="AS29" t="n">
         <v>300</v>
       </c>
-      <c r="AT28" t="n">
+      <c r="AT29" t="n">
         <v>2.55</v>
       </c>
-      <c r="AU28" t="n">
+      <c r="AU29" t="n">
         <v>9</v>
       </c>
-      <c r="AV28" t="n">
+      <c r="AV29" t="n">
         <v>100</v>
       </c>
-      <c r="AW28" t="n">
+      <c r="AW29" t="n">
         <v>10.5</v>
       </c>
-      <c r="AX28" t="n">
+      <c r="AX29" t="n">
         <v>65</v>
       </c>
-      <c r="AY28" t="n">
+      <c r="AY29" t="n">
         <v>60</v>
       </c>
-      <c r="AZ28" t="n">
+      <c r="AZ29" t="n">
         <v>600</v>
       </c>
-      <c r="BA28" t="n">
+      <c r="BA29" t="n">
         <v>500</v>
       </c>
-      <c r="BB28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD28" t="n">
+      <c r="BB29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD29" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD29"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>2.1</v>
@@ -944,7 +944,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -986,13 +986,13 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -1010,13 +1010,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>81</v>
@@ -1028,7 +1028,7 @@
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
         <v>7.5</v>
@@ -1037,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA3" t="n">
         <v>201</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1526,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
         <v>15</v>
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fcAISRoS</t>
+          <t>KvdzGl2M</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.75</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>6.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="AE7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>6.7</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.67</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KvdzGl2M</t>
+          <t>4CX6ASPq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,169 +1830,169 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.6</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.67</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
         <v>501</v>
       </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4CX6ASPq</t>
+          <t>CxyF86fd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,55 +2012,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L9" t="n">
         <v>4.33</v>
       </c>
-      <c r="I9" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>1.7</v>
@@ -2072,109 +2072,109 @@
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
         <v>12</v>
       </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
         <v>29</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
         <v>21</v>
       </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>29</v>
-      </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CxyF86fd</t>
+          <t>QHI1W9n3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
         <v>13</v>
       </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
         <v>13</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA10" t="n">
         <v>41</v>
       </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="BB10" t="n">
         <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>501</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QHI1W9n3</t>
+          <t>bVG9UmHF</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,169 +2376,169 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.75</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>13</v>
-      </c>
-      <c r="X11" t="n">
-        <v>23</v>
-      </c>
       <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
         <v>15</v>
       </c>
-      <c r="Z11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
         <v>34</v>
       </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH11" t="n">
         <v>15</v>
       </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8</v>
-      </c>
       <c r="AI11" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
         <v>101</v>
       </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bVG9UmHF</t>
+          <t>Qu1lN59k</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,67 +2558,67 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>7.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>1.87</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X12" t="n">
         <v>11</v>
-      </c>
-      <c r="X12" t="n">
-        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
@@ -2627,100 +2627,100 @@
         <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>7.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AG12" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Qu1lN59k</t>
+          <t>nekcLqv2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,88 +2740,88 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.07</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="K13" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="U13" t="n">
         <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
         <v>7.6</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC13" t="n">
         <v>9</v>
       </c>
-      <c r="Z13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AD13" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF13" t="n">
         <v>65</v>
@@ -2830,61 +2830,61 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR13" t="n">
         <v>55</v>
       </c>
-      <c r="AL13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>70</v>
-      </c>
       <c r="AS13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AV13" t="n">
         <v>60</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AX13" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BA13" t="n">
         <v>150</v>
@@ -2896,13 +2896,13 @@
         <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nekcLqv2</t>
+          <t>O4noaTdm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,169 +2922,169 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
         <v>9</v>
       </c>
-      <c r="Y14" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z14" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
       </c>
       <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
         <v>8</v>
       </c>
-      <c r="AE14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
         <v>29</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>28</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD14" t="n">
         <v>126</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>O4noaTdm</t>
+          <t>dGkjAuDb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>5.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>2.18</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM15" t="n">
         <v>29</v>
       </c>
-      <c r="AC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>7.9</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="BA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC15" t="n">
         <v>81</v>
       </c>
-      <c r="BB15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>501</v>
-      </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dGkjAuDb</t>
+          <t>pCxQFr9d</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.9</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pCxQFr9d</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,157 +3468,157 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.5</v>
       </c>
-      <c r="P17" t="n">
+      <c r="T17" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.57</v>
       </c>
-      <c r="T17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>26</v>
       </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
       <c r="AR17" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>17</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.53</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="R18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>21</v>
+      </c>
+      <c r="X18" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>9</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="AK18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX18" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AY18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC18" t="n">
         <v>81</v>
       </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="BD18" t="n">
         <v>81</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,167 +3822,167 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.33</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" t="n">
         <v>7</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>17</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
         <v>21</v>
-      </c>
-      <c r="X19" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>51</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU19" t="n">
         <v>10</v>
       </c>
-      <c r="AE19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY19" t="n">
         <v>41</v>
       </c>
-      <c r="AP19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4014,157 +4014,157 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
         <v>5</v>
       </c>
-      <c r="J20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.88</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.4</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>7</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>29</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>41</v>
-      </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
         <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA20" t="n">
         <v>126</v>
       </c>
-      <c r="BA20" t="n">
-        <v>201</v>
-      </c>
       <c r="BB20" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,37 +4196,37 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="H21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>1.3</v>
@@ -4235,37 +4235,37 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
@@ -4274,79 +4274,79 @@
         <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
         <v>23</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>41</v>
       </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>29</v>
-      </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
         <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY21" t="n">
         <v>26</v>
       </c>
-      <c r="AY21" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4378,97 +4378,97 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
         <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.83</v>
       </c>
-      <c r="S22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
         <v>21</v>
       </c>
-      <c r="AA22" t="n">
-        <v>19</v>
-      </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -4477,10 +4477,10 @@
         <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
@@ -4489,37 +4489,37 @@
         <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
         <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX22" t="n">
         <v>17</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,85 +4560,85 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
+        <v>15</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y23" t="n">
         <v>8.5</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>11</v>
       </c>
-      <c r="Y23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
         <v>23</v>
       </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>34</v>
-      </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4647,67 +4647,67 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX23" t="n">
         <v>29</v>
       </c>
-      <c r="AL23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM23" t="n">
+      <c r="AY23" t="n">
         <v>34</v>
       </c>
-      <c r="AN23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
         <v>201</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4742,157 +4742,157 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.1</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>13</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>17</v>
-      </c>
       <c r="AK24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX24" t="n">
         <v>23</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>29</v>
       </c>
       <c r="AY24" t="n">
         <v>34</v>
       </c>
       <c r="AZ24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA24" t="n">
         <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.14</v>
       </c>
       <c r="H25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>15</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>17</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T25" t="n">
         <v>3.5</v>
       </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="U25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO25" t="n">
         <v>4.75</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>10</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW25" t="n">
         <v>15</v>
       </c>
-      <c r="AA25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
+      <c r="AX25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>351</v>
       </c>
-      <c r="AH25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>81</v>
-      </c>
       <c r="BA25" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,167 +5096,167 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.14</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="K26" t="n">
-        <v>2.75</v>
+        <v>2.18</v>
       </c>
       <c r="L26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA26" t="n">
         <v>15</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N26" t="n">
-        <v>17</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="AB26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW26" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>15</v>
-      </c>
       <c r="AX26" t="n">
-        <v>67</v>
+        <v>18.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>351</v>
+        <v>90</v>
       </c>
       <c r="BA26" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="BB26" t="n">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>rZtf1obm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,164 +5278,164 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T27" t="n">
         <v>2.57</v>
       </c>
-      <c r="K27" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="U27" t="n">
         <v>1.75</v>
       </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V27" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="W27" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC27" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP27" t="n">
         <v>18</v>
       </c>
-      <c r="AA27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AQ27" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS27" t="n">
         <v>200</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV27" t="n">
         <v>55</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="AX27" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ27" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BA27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB27" t="n">
         <v>250</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>QH0N67zQ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5470,344 +5470,162 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.32</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
-        <v>2.82</v>
+        <v>1.8</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L28" t="n">
-        <v>3.45</v>
+        <v>8.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P28" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="S28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U28" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="V28" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="X28" t="n">
-        <v>11.25</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
         <v>9</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AE28" t="n">
         <v>24</v>
       </c>
-      <c r="AA28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>14</v>
-      </c>
       <c r="AF28" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>600</v>
       </c>
-      <c r="AH28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>75</v>
-      </c>
       <c r="BA28" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="BB28" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
       </c>
       <c r="BD28" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L29" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W29" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X29" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>600</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD29" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -822,13 +822,13 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -1481,7 +1481,7 @@
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.1</v>
@@ -1854,7 +1854,7 @@
         <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1917,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
         <v>17</v>
@@ -1926,22 +1926,22 @@
         <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
         <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1980,7 +1980,7 @@
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>501</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2072,7 +2072,7 @@
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2102,19 +2102,19 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -2123,10 +2123,10 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>34</v>
@@ -2147,10 +2147,10 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J10" t="n">
         <v>4.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.75</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -2245,34 +2245,34 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
         <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2287,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>13</v>
@@ -2302,7 +2302,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2311,13 +2311,13 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
         <v>81</v>
       </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
@@ -2341,7 +2341,7 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>126</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
@@ -2949,10 +2949,10 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2979,25 +2979,25 @@
         <v>1.95</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3012,7 +3012,7 @@
         <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -3021,13 +3021,13 @@
         <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
         <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
         <v>4</v>
@@ -3042,7 +3042,7 @@
         <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
@@ -3057,10 +3057,10 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
         <v>29</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3832,157 +3832,157 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.85</v>
       </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>1.4</v>
       </c>
-      <c r="S19" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD19" t="n">
         <v>7</v>
       </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>29</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
         <v>6.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA19" t="n">
         <v>126</v>
       </c>
-      <c r="BA19" t="n">
-        <v>201</v>
-      </c>
       <c r="BB19" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,49 +4014,49 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4065,73 +4065,73 @@
         <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
         <v>6.5</v>
       </c>
-      <c r="X20" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="AE20" t="n">
         <v>13</v>
       </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM20" t="n">
         <v>29</v>
       </c>
-      <c r="AC20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4143,28 +4143,28 @@
         <v>2.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4196,97 +4196,97 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
         <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.83</v>
       </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
         <v>21</v>
       </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -4295,10 +4295,10 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
@@ -4307,37 +4307,37 @@
         <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
         <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX21" t="n">
         <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,85 +4378,85 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
         <v>8.5</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>11</v>
       </c>
-      <c r="Y22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="n">
         <v>23</v>
       </c>
-      <c r="AA22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>34</v>
-      </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4465,67 +4465,67 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX22" t="n">
         <v>29</v>
       </c>
-      <c r="AL22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM22" t="n">
+      <c r="AY22" t="n">
         <v>34</v>
       </c>
-      <c r="AN22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
         <v>201</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,157 +4560,157 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.1</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.67</v>
       </c>
-      <c r="R23" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S23" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>13</v>
       </c>
-      <c r="AD23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>17</v>
-      </c>
       <c r="AK23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX23" t="n">
         <v>23</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>29</v>
       </c>
       <c r="AY23" t="n">
         <v>34</v>
       </c>
       <c r="AZ23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA23" t="n">
         <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
       <c r="H24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>15</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>17</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T24" t="n">
         <v>3.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="U24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN24" t="n">
         <v>3</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AO24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>351</v>
       </c>
-      <c r="AH24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>81</v>
-      </c>
       <c r="BA24" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BB24" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,167 +4914,167 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.14</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="K25" t="n">
-        <v>2.75</v>
+        <v>2.18</v>
       </c>
       <c r="L25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA25" t="n">
         <v>15</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>17</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W25" t="n">
-        <v>7</v>
-      </c>
-      <c r="X25" t="n">
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW25" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>15</v>
-      </c>
       <c r="AX25" t="n">
-        <v>67</v>
+        <v>18.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AZ25" t="n">
-        <v>351</v>
+        <v>90</v>
       </c>
       <c r="BA25" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="BB25" t="n">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5106,109 +5106,109 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J26" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="K26" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
         <v>3.8</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.6</v>
-      </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S26" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="X26" t="n">
         <v>10.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>12.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG26" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>12</v>
       </c>
-      <c r="AI26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM26" t="n">
         <v>30</v>
@@ -5217,34 +5217,34 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS26" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>6.7</v>
       </c>
       <c r="AV26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AX26" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AY26" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -771,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.3</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2063,34 +2063,34 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
         <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2102,34 +2102,34 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2147,19 +2147,19 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -2239,64 +2239,64 @@
         <v>2.05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
         <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
         <v>15</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>23</v>
@@ -2305,10 +2305,10 @@
         <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>67</v>
@@ -2320,25 +2320,25 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2955,16 +2955,16 @@
         <v>9.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
         <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2973,22 +2973,22 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
         <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
@@ -3012,19 +3012,19 @@
         <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
         <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -3033,13 +3033,13 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3066,13 +3066,13 @@
         <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
         <v>501</v>
@@ -3507,10 +3507,10 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
         <v>1.5</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
         <v>1.33</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3731,7 +3731,7 @@
         <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3779,7 +3779,7 @@
         <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3788,7 +3788,7 @@
         <v>3.4</v>
       </c>
       <c r="AX18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
         <v>17</v>
@@ -4026,7 +4026,7 @@
         <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
         <v>3.1</v>
@@ -4041,10 +4041,10 @@
         <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -4053,10 +4053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4089,10 +4089,10 @@
         <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4110,7 +4110,7 @@
         <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
         <v>34</v>
@@ -4119,7 +4119,7 @@
         <v>23</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
         <v>4.33</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
@@ -4214,19 +4214,19 @@
         <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
         <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -4241,10 +4241,10 @@
         <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
         <v>1.83</v>
@@ -4295,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>26</v>
@@ -4307,13 +4307,13 @@
         <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
         <v>67</v>
@@ -4322,7 +4322,7 @@
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
         <v>8.5</v>
@@ -4331,7 +4331,7 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
         <v>17</v>
@@ -4763,16 +4763,16 @@
         <v>1.53</v>
       </c>
       <c r="K24" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L24" t="n">
         <v>15</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
@@ -4805,7 +4805,7 @@
         <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
         <v>6</v>
@@ -4826,7 +4826,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="n">
         <v>201</v>
@@ -4841,10 +4841,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM24" t="n">
         <v>101</v>
@@ -5115,55 +5115,55 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P26" t="n">
         <v>3.55</v>
       </c>
-      <c r="J26" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.8</v>
-      </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="U26" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="W26" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
         <v>10.25</v>
@@ -5172,34 +5172,34 @@
         <v>8.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA26" t="n">
         <v>14</v>
       </c>
       <c r="AB26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI26" t="n">
         <v>21</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>22</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5208,19 +5208,19 @@
         <v>55</v>
       </c>
       <c r="AL26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO26" t="n">
         <v>9.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>32</v>
@@ -5232,31 +5232,31 @@
         <v>175</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW26" t="n">
         <v>5.7</v>
       </c>
       <c r="AX26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ26" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB26" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -974,7 +974,7 @@
         <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1147,10 +1147,10 @@
         <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1329,7 +1329,7 @@
         <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
@@ -1511,10 +1511,10 @@
         <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1881,7 +1881,7 @@
         <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
         <v>2.05</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V9" t="n">
         <v>2.1</v>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2114,7 +2114,7 @@
         <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>29</v>
@@ -2123,7 +2123,7 @@
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2147,19 +2147,19 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J10" t="n">
         <v>4.33</v>
@@ -2287,7 +2287,7 @@
         <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2961,22 +2961,22 @@
         <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.8</v>
       </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W14" t="n">
         <v>7</v>
@@ -2985,7 +2985,7 @@
         <v>9</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
@@ -2997,7 +2997,7 @@
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3009,7 +3009,7 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH14" t="n">
         <v>11</v>
@@ -3024,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -3039,7 +3039,7 @@
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3048,7 +3048,7 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -3066,13 +3066,13 @@
         <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
         <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
         <v>501</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dGkjAuDb</t>
+          <t>pCxQFr9d</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L15" t="n">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.9</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pCxQFr9d</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,157 +3286,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.5</v>
       </c>
-      <c r="P16" t="n">
+      <c r="T16" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.57</v>
       </c>
-      <c r="T16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>26</v>
       </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.53</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="S17" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="T17" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
         <v>10</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC17" t="n">
         <v>81</v>
       </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="BD17" t="n">
         <v>81</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,65 +3640,65 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
         <v>5</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
         <v>1.83</v>
@@ -3707,100 +3707,100 @@
         <v>1.83</v>
       </c>
       <c r="W18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP18" t="n">
         <v>21</v>
       </c>
-      <c r="X18" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AQ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB18" t="n">
         <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>101</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,49 +3832,49 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -3883,73 +3883,73 @@
         <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
         <v>13</v>
       </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI19" t="n">
         <v>17</v>
       </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH19" t="n">
+      <c r="AJ19" t="n">
         <v>12</v>
       </c>
-      <c r="AI19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
       <c r="AK19" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
@@ -3961,28 +3961,28 @@
         <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY19" t="n">
         <v>26</v>
       </c>
-      <c r="AY19" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4014,109 +4014,109 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="Q20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
         <v>10</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>10</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>11</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12</v>
       </c>
       <c r="AK20" t="n">
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
         <v>34</v>
@@ -4128,22 +4128,22 @@
         <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
@@ -4155,16 +4155,16 @@
         <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,85 +4196,85 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.35</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="n">
         <v>8.5</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>11</v>
       </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
         <v>23</v>
       </c>
-      <c r="AA21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4283,67 +4283,67 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY21" t="n">
         <v>34</v>
       </c>
-      <c r="AL21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
         <v>201</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4378,157 +4378,157 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.1</v>
       </c>
-      <c r="K22" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L22" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>13</v>
       </c>
-      <c r="AD22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
       <c r="AK22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX22" t="n">
         <v>23</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>29</v>
       </c>
       <c r="AY22" t="n">
         <v>34</v>
       </c>
       <c r="AZ22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA22" t="n">
         <v>101</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
       <c r="H23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>17</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T23" t="n">
         <v>3.5</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="U23" t="n">
         <v>2.63</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="V23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN23" t="n">
         <v>3</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AO23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR23" t="n">
         <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
       </c>
       <c r="AS23" t="n">
         <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW23" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AY23" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AZ23" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BA23" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BB23" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,167 +4732,167 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.14</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="K24" t="n">
-        <v>2.88</v>
+        <v>2.18</v>
       </c>
       <c r="L24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA24" t="n">
         <v>15</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>13</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7</v>
-      </c>
-      <c r="X24" t="n">
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW24" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>15</v>
-      </c>
       <c r="AX24" t="n">
-        <v>67</v>
+        <v>18.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>351</v>
+        <v>90</v>
       </c>
       <c r="BA24" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="BB24" t="n">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4924,43 +4924,43 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="K25" t="n">
         <v>2.18</v>
       </c>
       <c r="L25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q25" t="n">
         <v>1.75</v>
@@ -4972,40 +4972,40 @@
         <v>1.36</v>
       </c>
       <c r="T25" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W25" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
         <v>10.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>50</v>
@@ -5014,67 +5014,67 @@
         <v>350</v>
       </c>
       <c r="AH25" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>12</v>
       </c>
-      <c r="AI25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO25" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR25" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS25" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV25" t="n">
         <v>55</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AX25" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ25" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA25" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB25" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>82eFhJGa</t>
+          <t>rZtf1obm</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,167 +5096,167 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.47</v>
+        <v>2.82</v>
       </c>
       <c r="K26" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P26" t="n">
-        <v>3.55</v>
+        <v>2.77</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.75</v>
       </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V26" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="W26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC26" t="n">
         <v>8.5</v>
       </c>
-      <c r="X26" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
         <v>14</v>
       </c>
-      <c r="AB26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
       <c r="AF26" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AG26" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AH26" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AK26" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AL26" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM26" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AR26" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS26" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.87</v>
+        <v>2.6</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV26" t="n">
         <v>55</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="BA26" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BB26" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>QH0N67zQ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5288,344 +5288,162 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>2.82</v>
+        <v>1.8</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L27" t="n">
-        <v>3.45</v>
+        <v>8.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="S27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="V27" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="X27" t="n">
-        <v>11.25</v>
+        <v>5.4</v>
       </c>
       <c r="Y27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
         <v>9</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AE27" t="n">
         <v>24</v>
       </c>
-      <c r="AA27" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>14</v>
-      </c>
       <c r="AF27" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AG27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>600</v>
       </c>
-      <c r="AH27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>75</v>
-      </c>
       <c r="BA27" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="BB27" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
       </c>
       <c r="BD27" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L28" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>600</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD28" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -974,7 +974,7 @@
         <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
@@ -1129,10 +1129,10 @@
         <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1147,10 +1147,10 @@
         <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1195,7 +1195,7 @@
         <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
@@ -1210,10 +1210,10 @@
         <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
         <v>11</v>
@@ -1329,7 +1329,7 @@
         <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
@@ -1511,10 +1511,10 @@
         <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1881,7 +1881,7 @@
         <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
         <v>2.05</v>
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
         <v>2.1</v>
@@ -2224,7 +2224,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -2233,10 +2233,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2949,10 +2949,10 @@
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -3325,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
         <v>1.5</v>
@@ -3689,10 +3689,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
@@ -4032,19 +4032,19 @@
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -4113,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4125,13 +4125,13 @@
         <v>4.33</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
         <v>67</v>
@@ -4149,7 +4149,7 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX20" t="n">
         <v>17</v>
@@ -4405,10 +4405,10 @@
         <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4593,10 +4593,10 @@
         <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -1129,10 +1129,10 @@
         <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.75</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1526,13 +1526,13 @@
         <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
         <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
         <v>41</v>
@@ -1559,7 +1559,7 @@
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J9" t="n">
         <v>7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
@@ -2063,10 +2063,10 @@
         <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>7.5</v>
@@ -2111,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL9" t="n">
         <v>11</v>
@@ -2123,37 +2123,37 @@
         <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>3.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ9" t="n">
         <v>17</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
         <v>2.1</v>
@@ -2403,10 +2403,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
@@ -2415,10 +2415,10 @@
         <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2442,7 +2442,7 @@
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
@@ -2466,7 +2466,7 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2487,7 +2487,7 @@
         <v>3.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2499,7 +2499,7 @@
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
         <v>3.25</v>
@@ -2514,13 +2514,13 @@
         <v>7</v>
       </c>
       <c r="AX11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY11" t="n">
         <v>29</v>
       </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,10 +1493,10 @@
         <v>2.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,143 +2002,143 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.36</v>
       </c>
-      <c r="J9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.83</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>17</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
         <v>21</v>
       </c>
-      <c r="X9" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>51</v>
-      </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2147,22 +2147,22 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,85 +2194,85 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.5</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
       <c r="Z10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
         <v>23</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2281,67 +2281,67 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX10" t="n">
         <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,106 +2376,106 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.1</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.73</v>
       </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
       </c>
       <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15</v>
       </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
@@ -2484,49 +2484,49 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
         <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
       <c r="H12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
         <v>3.5</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="U12" t="n">
         <v>2.63</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="V12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AO12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR12" t="n">
         <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AZ12" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,167 +2730,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.14</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA13" t="n">
         <v>15</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L13" t="n">
-        <v>13</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>17</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW13" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>15</v>
-      </c>
       <c r="AX13" t="n">
-        <v>67</v>
+        <v>18.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>351</v>
+        <v>90</v>
       </c>
       <c r="BA13" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="BB13" t="n">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,43 +2922,43 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="K14" t="n">
         <v>2.18</v>
       </c>
       <c r="L14" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q14" t="n">
         <v>1.75</v>
@@ -2970,40 +2970,40 @@
         <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>10.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>50</v>
@@ -3012,67 +3012,67 @@
         <v>350</v>
       </c>
       <c r="AH14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>12</v>
       </c>
-      <c r="AI14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO14" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR14" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV14" t="n">
         <v>55</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AX14" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ14" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>82eFhJGa</t>
+          <t>rZtf1obm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,167 +3094,167 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.47</v>
+        <v>2.82</v>
       </c>
       <c r="K15" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>3.55</v>
+        <v>2.77</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.75</v>
       </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V15" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
         <v>14</v>
       </c>
-      <c r="AB15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
       <c r="AF15" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AH15" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AK15" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AR15" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS15" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.87</v>
+        <v>2.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV15" t="n">
         <v>55</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="BA15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BB15" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>QH0N67zQ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,344 +3286,162 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>2.82</v>
+        <v>1.8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L16" t="n">
-        <v>3.45</v>
+        <v>8.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="X16" t="n">
-        <v>11.25</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
         <v>9</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AE16" t="n">
         <v>24</v>
       </c>
-      <c r="AA16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>14</v>
-      </c>
       <c r="AF16" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>600</v>
       </c>
-      <c r="AH16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>75</v>
-      </c>
       <c r="BA16" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="BB16" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>600</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD17" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -1141,10 +1141,10 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1317,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.2</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
@@ -2102,34 +2102,34 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
@@ -2147,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
         <v>17</v>
@@ -2591,10 +2591,10 @@
         <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
         <v>1.57</v>
@@ -3295,145 +3295,145 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="K16" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>8.75</v>
+        <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="AE16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG16" t="n">
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AJ16" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="AL16" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AP16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>55</v>
       </c>
       <c r="AS16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AV16" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW16" t="n">
-        <v>10.5</v>
+        <v>8.25</v>
       </c>
       <c r="AX16" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AY16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ16" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="BA16" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BB16" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -953,22 +953,22 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1031,7 +1031,7 @@
         <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -2585,10 +2585,10 @@
         <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2597,10 +2597,10 @@
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S12" t="n">
         <v>1.29</v>
@@ -3116,28 +3116,28 @@
         <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J15" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
         <v>2.77</v>
@@ -3149,10 +3149,10 @@
         <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U15" t="n">
         <v>1.75</v>
@@ -3179,13 +3179,13 @@
         <v>30</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF15" t="n">
         <v>70</v>
@@ -3197,7 +3197,7 @@
         <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>10.75</v>
@@ -3212,49 +3212,49 @@
         <v>37</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS15" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AV15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AX15" t="n">
         <v>16</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
         <v>75</v>
       </c>
       <c r="BA15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB15" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3316,7 +3316,7 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,16 +953,16 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,25 +1335,25 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1362,46 +1362,46 @@
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>15</v>
       </c>
-      <c r="AI5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1413,28 +1413,28 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
         <v>29</v>
       </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
         <v>101</v>
       </c>
-      <c r="BA5" t="n">
-        <v>126</v>
-      </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1675,10 +1675,10 @@
         <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,31 +2012,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2063,25 +2063,25 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2090,49 +2090,49 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
@@ -2144,25 +2144,25 @@
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="L10" t="n">
+        <v>13</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>19</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
         <v>5.5</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>15</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.36</v>
       </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="T11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.15</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA11" t="n">
         <v>15</v>
       </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AP11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY11" t="n">
         <v>23</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,167 +2548,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.14</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.53</v>
+        <v>2.47</v>
       </c>
       <c r="K12" t="n">
-        <v>2.75</v>
+        <v>2.18</v>
       </c>
       <c r="L12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE12" t="n">
         <v>13</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>19</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7</v>
-      </c>
-      <c r="X12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>12</v>
       </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
       <c r="AK12" t="n">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="AN12" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="AU12" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>5.7</v>
       </c>
       <c r="AX12" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="AY12" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="BA12" t="n">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>501</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>rZtf1obm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,167 +2730,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="J13" t="n">
-        <v>2.57</v>
+        <v>2.87</v>
       </c>
       <c r="K13" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7.9</v>
+        <v>6.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.6</v>
+        <v>2.77</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.75</v>
       </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="W13" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH13" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>50</v>
       </c>
-      <c r="AG13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>37</v>
-      </c>
       <c r="AR13" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="AX13" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ13" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BA13" t="n">
         <v>110</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>82eFhJGa</t>
+          <t>QH0N67zQ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,536 +2912,172 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.47</v>
+        <v>2.05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>3.55</v>
+        <v>2.77</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="V14" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="X14" t="n">
-        <v>10.25</v>
+        <v>6.2</v>
       </c>
       <c r="Y14" t="n">
         <v>8.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AC14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW14" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AY14" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AZ14" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="BA14" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>rZtf1obm</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Rayo Zuliano</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>350</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -959,16 +959,16 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1025,7 +1025,7 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,22 +1335,22 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1374,28 +1374,28 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1419,19 +1419,19 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -1675,10 +1675,10 @@
         <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -2221,10 +2221,10 @@
         <v>13</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2770,7 +2770,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2931,19 +2931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L14" t="n">
         <v>6.4</v>
@@ -2952,16 +2952,16 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1.65</v>
@@ -2970,19 +2970,19 @@
         <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U14" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X14" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y14" t="n">
         <v>8.25</v>
@@ -2991,22 +2991,22 @@
         <v>10.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="n">
         <v>8.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG14" t="n">
         <v>201</v>
@@ -3018,7 +3018,7 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>175</v>
@@ -3030,16 +3030,16 @@
         <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
         <v>18</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR14" t="n">
         <v>60</v>
@@ -3048,16 +3048,16 @@
         <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW14" t="n">
         <v>7.9</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>7.8</v>
       </c>
       <c r="AX14" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -953,22 +953,22 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1025,7 +1025,7 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
         <v>3.25</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1141,10 +1141,10 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1153,16 +1153,16 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,10 +1189,10 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>9</v>
@@ -1216,10 +1216,10 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
         <v>101</v>
@@ -1249,7 +1249,7 @@
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1353,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1365,7 +1365,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1374,10 +1374,10 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1389,7 +1389,7 @@
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
@@ -1401,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2045,40 +2045,40 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2090,55 +2090,55 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
         <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2147,10 +2147,10 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
@@ -2159,10 +2159,10 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2749,34 +2749,34 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>6.8</v>
+        <v>6.85</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q13" t="n">
         <v>1.98</v>
@@ -2785,10 +2785,10 @@
         <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T13" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="U13" t="n">
         <v>1.75</v>
@@ -2797,28 +2797,28 @@
         <v>1.85</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X13" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC13" t="n">
         <v>9</v>
       </c>
-      <c r="Z13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AD13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE13" t="n">
         <v>14.5</v>
@@ -2830,67 +2830,67 @@
         <v>600</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="n">
         <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
         <v>60</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BA13" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BB13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>4.33</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -789,10 +789,10 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -828,7 +828,7 @@
         <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -852,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1129,10 +1129,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1141,10 +1141,10 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1317,10 +1317,10 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.93</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K9" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -2051,10 +2051,10 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2063,10 +2063,10 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
@@ -2075,19 +2075,19 @@
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
@@ -2096,16 +2096,16 @@
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2123,10 +2123,10 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2141,7 +2141,7 @@
         <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -2162,7 +2162,7 @@
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2767,10 +2767,10 @@
         <v>3.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>6.85</v>
+        <v>11.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2931,34 +2931,34 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="J14" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.75</v>
+        <v>6.65</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
@@ -2973,37 +2973,37 @@
         <v>2.52</v>
       </c>
       <c r="U14" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF14" t="n">
         <v>120</v>
@@ -3012,10 +3012,10 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -3027,49 +3027,49 @@
         <v>90</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AP14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
         <v>22</v>
       </c>
       <c r="AR14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS14" t="n">
         <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW14" t="n">
         <v>7.9</v>
       </c>
       <c r="AX14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AY14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ14" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BA14" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BB14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>4.33</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -816,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -828,7 +828,7 @@
         <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -852,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,13 +971,13 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>6</v>
@@ -986,88 +986,88 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
         <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1141,10 +1141,10 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1153,16 +1153,16 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,10 +1189,10 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
         <v>9</v>
@@ -1216,10 +1216,10 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
         <v>101</v>
@@ -1249,7 +1249,7 @@
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
@@ -1317,10 +1317,10 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
         <v>1.93</v>
@@ -1675,10 +1675,10 @@
         <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1848,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -2221,10 +2221,10 @@
         <v>13</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>QH0N67zQ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,344 +2740,162 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L13" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>11.4</v>
+        <v>6.65</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="X13" t="n">
-        <v>11.75</v>
+        <v>6.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="n">
         <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.35</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AR13" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
         <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AV13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.55</v>
+        <v>7.6</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AZ13" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="BA13" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>350</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>350</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -795,16 +795,16 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -819,28 +819,28 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -873,13 +873,13 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GAaHOioD</t>
+          <t>2BPmIXwm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>2.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR3" t="n">
         <v>101</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX3" t="n">
         <v>11</v>
       </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>41</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="BA3" t="n">
         <v>51</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>251</v>
-      </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2BPmIXwm</t>
+          <t>QL64Rg1f</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
         <v>10</v>
-      </c>
-      <c r="X4" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QL64Rg1f</t>
+          <t>8pd9QDG0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,154 +1284,154 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="J5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.63</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
         <v>29</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP5" t="n">
         <v>34</v>
       </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA5" t="n">
         <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8pd9QDG0</t>
+          <t>pCxQFr9d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.6</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.2</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
       </c>
       <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
         <v>81</v>
       </c>
-      <c r="AR6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS6" t="n">
+      <c r="AW6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
         <v>301</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA6" t="n">
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="BB6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pCxQFr9d</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="H7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.5</v>
       </c>
-      <c r="P7" t="n">
+      <c r="T7" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.57</v>
       </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
         <v>67</v>
       </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AN7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>26</v>
       </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>51</v>
       </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
         <v>1.53</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>5.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
         <v>15</v>
       </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="AK8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW8" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AZ8" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BA8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.6</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="Q9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AW9" t="n">
         <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,167 +2184,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.14</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.53</v>
+        <v>2.47</v>
       </c>
       <c r="K10" t="n">
-        <v>2.75</v>
+        <v>2.18</v>
       </c>
       <c r="L10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE10" t="n">
         <v>13</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>19</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AF10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>12</v>
       </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
       <c r="AK10" t="n">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="AU10" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AW10" t="n">
-        <v>15</v>
+        <v>5.7</v>
       </c>
       <c r="AX10" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="BA10" t="n">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="BB10" t="n">
-        <v>501</v>
+        <v>300</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>QH0N67zQ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,536 +2366,172 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.57</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="L11" t="n">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.62</v>
       </c>
-      <c r="V11" t="n">
-        <v>2.15</v>
-      </c>
       <c r="W11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y11" t="n">
         <v>8.25</v>
       </c>
-      <c r="X11" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AC11" t="n">
         <v>7.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>20</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK11" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="AL11" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.25</v>
+        <v>7.4</v>
       </c>
       <c r="AP11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX11" t="n">
         <v>37</v>
       </c>
-      <c r="AR11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AZ11" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="BA11" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>82eFhJGa</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1505,10 +1505,10 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1517,25 +1517,25 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1559,7 +1559,7 @@
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1577,19 +1577,19 @@
         <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
         <v>2.25</v>
@@ -1598,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>4.5</v>
@@ -1607,7 +1607,7 @@
         <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -2388,19 +2388,19 @@
         <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
         <v>6.5</v>
       </c>
       <c r="J11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.1</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.07</v>
-      </c>
       <c r="L11" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2409,55 +2409,55 @@
         <v>6.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="X11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB11" t="n">
         <v>32</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>6.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>110</v>
@@ -2466,37 +2466,37 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI11" t="n">
         <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>175</v>
       </c>
       <c r="AL11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM11" t="n">
         <v>80</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>75</v>
       </c>
       <c r="AN11" t="n">
         <v>3.25</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS11" t="n">
         <v>250</v>
@@ -2505,25 +2505,25 @@
         <v>2.47</v>
       </c>
       <c r="AU11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW11" t="n">
         <v>7.7</v>
       </c>
-      <c r="AV11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AX11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY11" t="n">
         <v>40</v>
       </c>
       <c r="AZ11" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA11" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB11" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -807,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -828,7 +828,7 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
@@ -929,46 +929,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -977,10 +977,10 @@
         <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1019,13 +1019,13 @@
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
         <v>5.5</v>
@@ -1037,7 +1037,7 @@
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>101</v>
@@ -1046,19 +1046,19 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
@@ -1067,10 +1067,10 @@
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pCxQFr9d</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.5</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="U6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
         <v>2.5</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AU6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX6" t="n">
         <v>41</v>
       </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AY6" t="n">
         <v>41</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.53</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
         <v>5.5</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
         <v>6</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10</v>
-      </c>
       <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
         <v>15</v>
       </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AK7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AZ7" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP8" t="n">
         <v>17</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>17</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AW8" t="n">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>67</v>
+        <v>19.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="BA8" t="n">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="BB8" t="n">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,43 +2012,43 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="K9" t="n">
         <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q9" t="n">
         <v>1.75</v>
@@ -2060,40 +2060,40 @@
         <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>10.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>50</v>
@@ -2102,67 +2102,67 @@
         <v>350</v>
       </c>
       <c r="AH9" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>12</v>
       </c>
-      <c r="AI9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AX9" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>82eFhJGa</t>
+          <t>QH0N67zQ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,354 +2184,172 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.47</v>
+        <v>2.07</v>
       </c>
       <c r="K10" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>3.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U10" t="n">
         <v>2</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>1.65</v>
       </c>
-      <c r="V10" t="n">
-        <v>2.12</v>
-      </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="X10" t="n">
-        <v>10.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AP10" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
         <v>55</v>
       </c>
       <c r="AS10" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.87</v>
+        <v>2.47</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AV10" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AZ10" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="BA10" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="BB10" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>300</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hSSQ1lIH</t>
+          <t>2BPmIXwm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -774,7 +774,7 @@
         <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
         <v>2.25</v>
@@ -789,28 +789,28 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -828,40 +828,40 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM2" t="n">
         <v>34</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
         <v>29</v>
       </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.5</v>
@@ -873,34 +873,34 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
         <v>67</v>
       </c>
-      <c r="BA2" t="n">
-        <v>101</v>
-      </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2BPmIXwm</t>
+          <t>QL64Rg1f</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,154 +920,154 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>17</v>
       </c>
-      <c r="Y3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>41</v>
-      </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
       </c>
       <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
         <v>5.5</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AX3" t="n">
         <v>21</v>
       </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>67</v>
       </c>
-      <c r="AR3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QL64Rg1f</t>
+          <t>8pd9QDG0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,154 +1102,154 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.2</v>
       </c>
-      <c r="L4" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.93</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
       </c>
       <c r="AN4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
         <v>4</v>
       </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AX4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>41</v>
       </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>67</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8pd9QDG0</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1323,130 +1323,130 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>21</v>
       </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AK5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
         <v>41</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AY5" t="n">
         <v>41</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AZ5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.53</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.1</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>5.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
         <v>6</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10</v>
-      </c>
       <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
         <v>15</v>
       </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU6" t="n">
         <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AZ6" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.14</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>17</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L7" t="n">
-        <v>15</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="AX7" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="BA7" t="n">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,43 +1830,43 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q8" t="n">
         <v>1.75</v>
@@ -1875,112 +1875,112 @@
         <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="W8" t="n">
         <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y8" t="n">
         <v>8.25</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="n">
         <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>32</v>
       </c>
-      <c r="AN8" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>37</v>
-      </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AX8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA8" t="n">
         <v>120</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>82eFhJGa</t>
+          <t>QH0N67zQ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,354 +2002,172 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="J9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.47</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.87</v>
-      </c>
       <c r="U9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.65</v>
       </c>
-      <c r="V9" t="n">
-        <v>2.12</v>
-      </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10.25</v>
+        <v>6.8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
         <v>13</v>
       </c>
-      <c r="AF9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AX9" t="n">
         <v>35</v>
       </c>
-      <c r="AN9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>20</v>
-      </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AZ9" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="BA9" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="BB9" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>300</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1204,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1323,28 +1323,28 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1359,13 +1359,13 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
@@ -1383,13 +1383,13 @@
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.25</v>
@@ -1410,7 +1410,7 @@
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>10</v>
@@ -1419,10 +1419,10 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1505,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -2024,31 +2024,31 @@
         <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J9" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q9" t="n">
         <v>2.05</v>
@@ -2060,7 +2060,7 @@
         <v>1.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U9" t="n">
         <v>1.98</v>
@@ -2069,70 +2069,70 @@
         <v>1.65</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB9" t="n">
         <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>150</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
         <v>3.35</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS9" t="n">
         <v>250</v>
@@ -2141,28 +2141,28 @@
         <v>2.42</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW9" t="n">
         <v>7.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ9" t="n">
         <v>250</v>
       </c>
       <c r="BA9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB9" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2BPmIXwm</t>
+          <t>QL64Rg1f</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,154 +738,154 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.75</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V2" t="n">
         <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
         <v>12</v>
       </c>
-      <c r="Z2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
         <v>41</v>
       </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>23</v>
-      </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
         <v>29</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
         <v>81</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QL64Rg1f</t>
+          <t>8pd9QDG0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,154 +920,154 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>41</v>
       </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8pd9QDG0</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,47 +1092,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1141,130 +1141,130 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.2</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
         <v>10</v>
       </c>
-      <c r="X4" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>15</v>
       </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>34</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB4" t="n">
         <v>351</v>
       </c>
-      <c r="AH4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.2</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI5" t="n">
         <v>21</v>
       </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>4.05</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.14</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.53</v>
+        <v>2.47</v>
       </c>
       <c r="K6" t="n">
-        <v>2.88</v>
+        <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>15</v>
+        <v>4.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="U6" t="n">
-        <v>2.63</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>41</v>
-      </c>
       <c r="AK6" t="n">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>15</v>
+        <v>5.7</v>
       </c>
       <c r="AX6" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="AY6" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="BA6" t="n">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>300</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>QH0N67zQ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,536 +1638,172 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.02</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.78</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.75</v>
+        <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR7" t="n">
         <v>55</v>
       </c>
-      <c r="AL7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>65</v>
-      </c>
       <c r="AS7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.8</v>
+        <v>2.47</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AZ7" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="BA7" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>82eFhJGa</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -777,16 +777,16 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
@@ -798,22 +798,22 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -828,28 +828,28 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -861,10 +861,10 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>4.33</v>
@@ -947,10 +947,10 @@
         <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -1141,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,16 +777,16 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>9</v>
@@ -810,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -819,10 +819,10 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
@@ -831,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -861,10 +861,10 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -876,16 +876,16 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -983,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>41</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1013,7 +1013,7 @@
         <v>6.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>9</v>
@@ -1031,13 +1031,13 @@
         <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
         <v>101</v>
@@ -1058,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.15</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1329,10 +1329,10 @@
         <v>1.98</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="T5" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="U5" t="n">
         <v>1.6</v>
@@ -1344,25 +1344,25 @@
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE5" t="n">
         <v>11.75</v>
@@ -1377,40 +1377,40 @@
         <v>11.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO5" t="n">
         <v>11.5</v>
       </c>
-      <c r="AK5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS5" t="n">
         <v>200</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AU5" t="n">
         <v>6.5</v>
@@ -1419,19 +1419,19 @@
         <v>50</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AX5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA5" t="n">
         <v>100</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>120</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -1622,188 +1622,6 @@
         <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>QH0N67zQ</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,34 +789,34 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -825,22 +825,22 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
       </c>
       <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -849,13 +849,13 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -873,13 +873,13 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>81</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.75</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,97 +971,97 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
       </c>
       <c r="Z3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA3" t="n">
         <v>41</v>
       </c>
-      <c r="AA3" t="n">
-        <v>34</v>
-      </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX3" t="n">
         <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.2</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>8.75</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>11.75</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="BA4" t="n">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,37 +1284,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.77</v>
+        <v>2.47</v>
       </c>
       <c r="K5" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L5" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1323,305 +1323,123 @@
         <v>3.55</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="W5" t="n">
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH5" t="n">
         <v>11.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY5" t="n">
         <v>25</v>
       </c>
-      <c r="AM5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="BA5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>82eFhJGa</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QL64Rg1f</t>
+          <t>8pd9QDG0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,154 +738,154 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.38</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="U2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX2" t="n">
         <v>11</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AY2" t="n">
         <v>26</v>
       </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AZ2" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>81</v>
-      </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8pd9QDG0</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,536 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>2.47</v>
       </c>
       <c r="K3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.87</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI3" t="n">
         <v>21</v>
       </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>81</v>
-      </c>
       <c r="BD3" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tEOPoB3F</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Charleston</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>82eFhJGa</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="K3" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -965,19 +965,19 @@
         <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T3" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X3" t="n">
         <v>10.25</v>
@@ -986,10 +986,10 @@
         <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB3" t="n">
         <v>22</v>
@@ -998,10 +998,10 @@
         <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF3" t="n">
         <v>50</v>
@@ -1010,7 +1010,7 @@
         <v>350</v>
       </c>
       <c r="AH3" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1022,49 +1022,49 @@
         <v>55</v>
       </c>
       <c r="AL3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM3" t="n">
         <v>32</v>
       </c>
-      <c r="AM3" t="n">
-        <v>35</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS3" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV3" t="n">
         <v>55</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AX3" t="n">
         <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA3" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8pd9QDG0</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,354 +728,172 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="K2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.85</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="W2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
         <v>10</v>
       </c>
-      <c r="X2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC2" t="n">
         <v>51</v>
       </c>
-      <c r="AC2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>81</v>
-      </c>
       <c r="BD2" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>82eFhJGa</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>16/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>82eFhJGa</t>
+          <t>hSSQ1lIH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,172 +728,5450 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
       </c>
       <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GAaHOioD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Paysandu PA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2BPmIXwm</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>QL64Rg1f</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8pd9QDG0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fcAISRoS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KvdzGl2M</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4CX6ASPq</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CxyF86fd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Crawley</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>QHI1W9n3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>bVG9UmHF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Qu1lN59k</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mansfield</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK13" t="n">
         <v>55</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nekcLqv2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>O4noaTdm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wrexham</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dGkjAuDb</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>IRELAND - PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bray</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Drogheda</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>jc9jJwe5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Iwata</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W17" t="n">
+        <v>13</v>
+      </c>
+      <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pCxQFr9d</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sp. Luqueno</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q7FCwn13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>YP0aYXu2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Chrobry Glogow</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Wisla</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>17</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W20" t="n">
+        <v>21</v>
+      </c>
+      <c r="X20" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vHd13DpS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Racing Club Ferrol</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>63bg5ZFF</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4bttdVx2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>jgo01QEs</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pfJSJYU8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nLv9a4qf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8OARDK0B</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Maldonado</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L27" t="n">
+        <v>15</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>17</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>tEOPoB3F</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>82eFhJGa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL29" t="n">
         <v>30</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM29" t="n">
         <v>32</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN29" t="n">
         <v>4</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO29" t="n">
         <v>10</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP29" t="n">
         <v>17</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ29" t="n">
         <v>37</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR29" t="n">
         <v>60</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS29" t="n">
         <v>200</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT29" t="n">
         <v>2.85</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU29" t="n">
         <v>6.7</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV29" t="n">
         <v>55</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW29" t="n">
         <v>5.6</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX29" t="n">
         <v>20</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY29" t="n">
         <v>24</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ29" t="n">
         <v>100</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA29" t="n">
         <v>120</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB29" t="n">
         <v>300</v>
       </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
+      <c r="BC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>rZtf1obm</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>QH0N67zQ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Dep. Tachira</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD31" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -825,25 +825,25 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
         <v>401</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
@@ -1007,25 +1007,25 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
         <v>3.2</v>
@@ -1189,25 +1189,25 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
         <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>5</v>
@@ -1371,25 +1371,25 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN5" t="n">
         <v>3.75</v>
@@ -1553,25 +1553,25 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
         <v>351</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
       </c>
       <c r="AN6" t="n">
         <v>6</v>
@@ -1735,25 +1735,25 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
         <v>401</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
       </c>
       <c r="AN7" t="n">
         <v>4.75</v>
@@ -1917,25 +1917,25 @@
         <v>150</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="AK8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="n">
         <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="AN8" t="n">
         <v>3.1</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="AN9" t="n">
         <v>3.75</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
         <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>
@@ -2463,25 +2463,25 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
         <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>23</v>
       </c>
       <c r="AN11" t="n">
         <v>6</v>
@@ -2645,25 +2645,25 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
         <v>101</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>23</v>
       </c>
       <c r="AN12" t="n">
         <v>4.5</v>
@@ -2827,25 +2827,25 @@
         <v>65</v>
       </c>
       <c r="AG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="n">
         <v>500</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>40</v>
       </c>
       <c r="AN13" t="n">
         <v>3.95</v>
@@ -3009,25 +3009,25 @@
         <v>65</v>
       </c>
       <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM14" t="n">
         <v>500</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>45</v>
       </c>
       <c r="AN14" t="n">
         <v>3.65</v>
@@ -3191,25 +3191,25 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
         <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
       </c>
       <c r="AN15" t="n">
         <v>4</v>
@@ -3373,25 +3373,25 @@
         <v>90</v>
       </c>
       <c r="AG16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
         <v>800</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>6.6</v>
@@ -3555,25 +3555,25 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
         <v>101</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>21</v>
       </c>
       <c r="AN17" t="n">
         <v>5.5</v>
@@ -3737,25 +3737,25 @@
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>6.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
         <v>4.75</v>
@@ -3919,25 +3919,25 @@
         <v>81</v>
       </c>
       <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
         <v>201</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
       </c>
       <c r="AN19" t="n">
         <v>3.25</v>
@@ -4101,25 +4101,25 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM20" t="n">
         <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>9</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>lEWdUzO9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,167 +4186,167 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Queen's Park</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.91</v>
       </c>
-      <c r="L21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
         <v>10</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>5.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>67</v>
+        <v>500</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>11</v>
       </c>
       <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
         <v>29</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AZ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA21" t="n">
         <v>81</v>
       </c>
-      <c r="AS21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>201</v>
-      </c>
       <c r="BB21" t="n">
-        <v>501</v>
+        <v>300</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>8GnbSEhM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,74 +4368,74 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
         <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
@@ -4444,19 +4444,19 @@
         <v>8.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
         <v>13</v>
       </c>
-      <c r="AA22" t="n">
-        <v>15</v>
-      </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -4465,37 +4465,37 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AK22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
         <v>41</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>800</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>51</v>
@@ -4504,19 +4504,19 @@
         <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY22" t="n">
         <v>34</v>
@@ -4528,7 +4528,7 @@
         <v>126</v>
       </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>vawUMhGq</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,167 +4550,167 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
         <v>11</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH23" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>11</v>
-      </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>26</v>
       </c>
       <c r="AM23" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>34</v>
       </c>
-      <c r="AN23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>51</v>
-      </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>0ERxLWpd</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,65 +4732,65 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Partick Thistle</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.35</v>
+        <v>1.57</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P24" t="n">
         <v>3.75</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.36</v>
       </c>
-      <c r="P24" t="n">
+      <c r="T24" t="n">
         <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.63</v>
       </c>
       <c r="U24" t="n">
         <v>1.83</v>
@@ -4802,73 +4802,73 @@
         <v>7.5</v>
       </c>
       <c r="X24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
         <v>11</v>
       </c>
-      <c r="Y24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>21</v>
-      </c>
       <c r="AA24" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
         <v>15</v>
       </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>301</v>
-      </c>
       <c r="AH24" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR24" t="n">
         <v>41</v>
       </c>
-      <c r="AN24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>67</v>
-      </c>
       <c r="AS24" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
         <v>8.5</v>
@@ -4877,22 +4877,22 @@
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ24" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>SKJOrzw3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,167 +4914,167 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K25" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W25" t="n">
         <v>5.5</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="X25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA25" t="n">
         <v>15</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2</v>
-      </c>
-      <c r="W25" t="n">
-        <v>8</v>
-      </c>
-      <c r="X25" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO25" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="AP25" t="n">
         <v>23</v>
       </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI25" t="n">
+      <c r="AQ25" t="n">
         <v>29</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>23</v>
-      </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA25" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5106,157 +5106,157 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.88</v>
       </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="R26" t="n">
         <v>1.4</v>
       </c>
-      <c r="P26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.5</v>
       </c>
-      <c r="T26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="X26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL26" t="n">
         <v>67</v>
       </c>
-      <c r="AG26" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>34</v>
-      </c>
       <c r="AM26" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA26" t="n">
         <v>201</v>
       </c>
-      <c r="AT26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>101</v>
-      </c>
       <c r="BB26" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X27" t="n">
         <v>7.5</v>
       </c>
-      <c r="I27" t="n">
+      <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE27" t="n">
         <v>17</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L27" t="n">
-        <v>15</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI27" t="n">
         <v>17</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AJ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK27" t="n">
         <v>41</v>
       </c>
-      <c r="AC27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE27" t="n">
+      <c r="AL27" t="n">
         <v>41</v>
       </c>
-      <c r="AF27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>126</v>
-      </c>
       <c r="AM27" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AN27" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AR27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU27" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC27" t="n">
         <v>81</v>
       </c>
-      <c r="AW27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>51</v>
-      </c>
       <c r="BD27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
         <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY28" t="n">
         <v>26</v>
       </c>
-      <c r="AM28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>22</v>
-      </c>
       <c r="AZ28" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BA28" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BB28" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>82eFhJGa</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2.15</v>
       </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="T29" t="n">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="U29" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="W29" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AB29" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="AH29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI29" t="n">
         <v>12</v>
       </c>
-      <c r="AI29" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="n">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX29" t="n">
         <v>17</v>
       </c>
-      <c r="AQ29" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>20</v>
-      </c>
       <c r="AY29" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AZ29" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA29" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BB29" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BC29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,354 +5824,1264 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L30" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>11.4</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S30" t="n">
         <v>1.33</v>
       </c>
-      <c r="P30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.39</v>
-      </c>
       <c r="T30" t="n">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
-        <v>11.75</v>
+        <v>8</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX30" t="n">
         <v>26</v>
       </c>
-      <c r="AA30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>14</v>
-      </c>
       <c r="AY30" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BA30" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="BB30" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>nLv9a4qf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>8OARDK0B</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Maldonado</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>17</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L32" t="n">
+        <v>15</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>17</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>tEOPoB3F</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>82eFhJGa</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X34" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>rZtf1obm</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W35" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>QH0N67zQ</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>16/11/2024</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Dep. Tachira</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Zamora</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G36" t="n">
         <v>1.65</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H36" t="n">
         <v>3.3</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I36" t="n">
         <v>5.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J36" t="n">
         <v>2.15</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K36" t="n">
         <v>2.07</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L36" t="n">
         <v>5.7</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M36" t="n">
         <v>1.04</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N36" t="n">
         <v>10.8</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O36" t="n">
         <v>1.35</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P36" t="n">
         <v>2.72</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q36" t="n">
         <v>2.02</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R36" t="n">
         <v>1.62</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S36" t="n">
         <v>1.4</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T36" t="n">
         <v>2.52</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U36" t="n">
         <v>1.93</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V36" t="n">
         <v>1.7</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W36" t="n">
         <v>5.7</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X36" t="n">
         <v>7.1</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Y36" t="n">
         <v>8</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="Z36" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AA36" t="n">
         <v>14</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AB36" t="n">
         <v>30</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AC36" t="n">
         <v>7.9</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AD36" t="n">
         <v>6.6</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AE36" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF36" t="n">
         <v>100</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM36" t="n">
         <v>900</v>
       </c>
-      <c r="AH31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI31" t="n">
+      <c r="AN36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AX36" t="n">
         <v>35</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS31" t="n">
+      <c r="AY36" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ36" t="n">
         <v>250</v>
       </c>
-      <c r="AT31" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ31" t="n">
+      <c r="BA36" t="n">
         <v>250</v>
       </c>
-      <c r="BA31" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB31" t="n">
+      <c r="BB36" t="n">
         <v>500</v>
       </c>
-      <c r="BC31" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD31" t="n">
+      <c r="BC36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD36" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD36"/>
+  <dimension ref="A1:BD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hSSQ1lIH</t>
+          <t>Szx3WeFa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.5</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>126</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GAaHOioD</t>
+          <t>hSSQ1lIH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,59 +904,59 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,118 +965,118 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
         <v>26</v>
       </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
         <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB3" t="n">
         <v>251</v>
       </c>
-      <c r="BB3" t="n">
-        <v>501</v>
-      </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2BPmIXwm</t>
+          <t>GAaHOioD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1086,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,49 +1096,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1153,76 +1147,76 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="n">
         <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>8</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>251</v>
@@ -1231,28 +1225,28 @@
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1258,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QL64Rg1f</t>
+          <t>2BPmIXwm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1268,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,154 +1278,154 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX5" t="n">
         <v>13</v>
       </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AY5" t="n">
         <v>26</v>
       </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -1446,7 +1440,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8pd9QDG0</t>
+          <t>QL64Rg1f</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,154 +1460,154 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.95</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.75</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="AI6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
         <v>34</v>
       </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AZ6" t="n">
         <v>81</v>
       </c>
-      <c r="AR6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>
@@ -1628,7 +1622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fcAISRoS</t>
+          <t>8pd9QDG0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,47 +1632,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.75</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1699,118 +1693,118 @@
         <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
         <v>23</v>
       </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
         <v>2.38</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
         <v>81</v>
       </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KvdzGl2M</t>
+          <t>fcAISRoS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1814,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,157 +1824,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
-        <v>4.25</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6.3</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.75</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX8" t="n">
         <v>15</v>
       </c>
-      <c r="AH8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>45</v>
-      </c>
       <c r="AY8" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1992,7 +1986,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4CX6ASPq</t>
+          <t>KvdzGl2M</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,169 +2006,169 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AH9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>21</v>
       </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AR9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW9" t="n">
         <v>8</v>
       </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7</v>
-      </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CxyF86fd</t>
+          <t>4CX6ASPq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,154 +2188,154 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Crawley</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
         <v>3.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
         <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="n">
         <v>34</v>
       </c>
-      <c r="AK10" t="n">
-        <v>26</v>
-      </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>151</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR10" t="n">
         <v>41</v>
       </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>151</v>
@@ -2350,13 +2344,13 @@
         <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QHI1W9n3</t>
+          <t>CxyF86fd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,49 +2370,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Crawley</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2433,28 +2427,28 @@
         <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2463,43 +2457,43 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>151</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
         <v>21</v>
       </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -2511,22 +2505,22 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>501</v>
@@ -2538,7 +2532,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bVG9UmHF</t>
+          <t>QHI1W9n3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,169 +2552,169 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.1</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="W12" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>17</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>11</v>
-      </c>
-      <c r="X12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AK12" t="n">
         <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>34</v>
       </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
       <c r="BA12" t="n">
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Qu1lN59k</t>
+          <t>bVG9UmHF</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,67 +2734,67 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
         <v>3.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7.7</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.87</v>
+        <v>2.35</v>
       </c>
       <c r="S13" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2809,100 +2803,100 @@
         <v>21</v>
       </c>
       <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
         <v>17</v>
       </c>
-      <c r="AB13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AD13" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="AU13" t="n">
         <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nekcLqv2</t>
+          <t>Qu1lN59k</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,151 +2916,151 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="K14" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="U14" t="n">
         <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W14" t="n">
         <v>7.6</v>
       </c>
       <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
         <v>9</v>
       </c>
-      <c r="Y14" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE14" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15.5</v>
       </c>
       <c r="AF14" t="n">
         <v>65</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL14" t="n">
         <v>40</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>45</v>
       </c>
       <c r="AM14" t="n">
         <v>500</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AR14" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA14" t="n">
         <v>150</v>
@@ -3078,13 +3072,13 @@
         <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>O4noaTdm</t>
+          <t>nekcLqv2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,169 +3098,169 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="K15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.1</v>
       </c>
-      <c r="L15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
         <v>9</v>
       </c>
       <c r="Y15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="n">
         <v>9</v>
       </c>
-      <c r="Z15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AD15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>29</v>
       </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AI15" t="n">
         <v>15</v>
       </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AS15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
         <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dGkjAuDb</t>
+          <t>O4noaTdm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3270,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.7</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.65</v>
-      </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.18</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.95</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W16" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.2</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY16" t="n">
         <v>29</v>
       </c>
-      <c r="AM16" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jc9jJwe5</t>
+          <t>K6hPOIpf</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3452,175 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.1</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT17" t="n">
         <v>2.75</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>17</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W17" t="n">
-        <v>13</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AU17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX17" t="n">
         <v>19</v>
       </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>11</v>
-      </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="BB17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pCxQFr9d</t>
+          <t>dGkjAuDb</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3630,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T18" t="n">
         <v>2.8</v>
       </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="X18" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>12</v>
       </c>
-      <c r="Y18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AK18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL18" t="n">
         <v>29</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AM18" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>26</v>
       </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>51</v>
-      </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BC18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q7FCwn13</t>
+          <t>jc9jJwe5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3812,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="n">
         <v>7.5</v>
       </c>
       <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>21</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AK19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD19" t="n">
         <v>81</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>YP0aYXu2</t>
+          <t>pCxQFr9d</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +3994,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>1.36</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
         <v>7</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>17</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W20" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>34</v>
       </c>
       <c r="AQ20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>lEWdUzO9</t>
+          <t>Q7FCwn13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4176,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Queen's Park</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>26</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU21" t="n">
         <v>10</v>
       </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ21" t="n">
+      <c r="AV21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY21" t="n">
         <v>41</v>
       </c>
-      <c r="AK21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="AZ21" t="n">
         <v>151</v>
       </c>
-      <c r="AT21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>67</v>
-      </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB21" t="n">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="BC21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8GnbSEhM</t>
+          <t>YP0aYXu2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,167 +4358,167 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="I22" t="n">
-        <v>5.75</v>
+        <v>1.36</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L22" t="n">
-        <v>5.5</v>
+        <v>1.83</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W22" t="n">
+        <v>21</v>
+      </c>
+      <c r="X22" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>11</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y22" t="n">
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>17</v>
       </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="BA22" t="n">
         <v>41</v>
       </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ22" t="n">
+      <c r="BB22" t="n">
         <v>101</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>500</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4530,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vawUMhGq</t>
+          <t>lEWdUzO9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,37 +4550,37 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Queen's Park</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.91</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
         <v>4</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.5</v>
-      </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.29</v>
@@ -4599,16 +4589,16 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23" t="n">
         <v>1.8</v>
@@ -4617,28 +4607,28 @@
         <v>1.91</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4647,46 +4637,46 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP23" t="n">
         <v>21</v>
       </c>
-      <c r="AP23" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU23" t="n">
         <v>8</v>
@@ -4695,22 +4685,22 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4722,7 +4712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0ERxLWpd</t>
+          <t>8GnbSEhM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,19 +4732,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Partick Thistle</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
         <v>5.75</v>
@@ -4763,7 +4753,7 @@
         <v>2.1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
@@ -4781,10 +4771,10 @@
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -4793,13 +4783,13 @@
         <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
         <v>7.5</v>
@@ -4835,7 +4825,7 @@
         <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
         <v>51</v>
@@ -4847,31 +4837,31 @@
         <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
         <v>8</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>23</v>
       </c>
       <c r="AR24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT24" t="n">
         <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4904,7 +4894,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SKJOrzw3</t>
+          <t>vawUMhGq</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,157 +4914,157 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>5.75</v>
+        <v>1.91</v>
       </c>
       <c r="J25" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.36</v>
       </c>
-      <c r="P25" t="n">
+      <c r="T25" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="X25" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
         <v>7</v>
       </c>
       <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO25" t="n">
         <v>21</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AP25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>67</v>
       </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>29</v>
-      </c>
       <c r="AR25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS25" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>34</v>
       </c>
-      <c r="AY25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ25" t="n">
+      <c r="BA25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB25" t="n">
         <v>126</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>500</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5086,7 +5076,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vHd13DpS</t>
+          <t>0ERxLWpd</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,167 +5086,167 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Partick Thistle</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
         <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="W26" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
         <v>15</v>
       </c>
-      <c r="AA26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB26" t="n">
+      <c r="AH26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK26" t="n">
         <v>41</v>
       </c>
-      <c r="AC26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>51</v>
-      </c>
       <c r="AL26" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
-        <v>201</v>
+        <v>700</v>
       </c>
       <c r="AN26" t="n">
         <v>3.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR26" t="n">
         <v>41</v>
       </c>
-      <c r="AR26" t="n">
-        <v>81</v>
-      </c>
       <c r="AS26" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA26" t="n">
         <v>126</v>
       </c>
-      <c r="BA26" t="n">
-        <v>201</v>
-      </c>
       <c r="BB26" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5268,7 +5258,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>63bg5ZFF</t>
+          <t>SKJOrzw3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,131 +5268,131 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U27" t="n">
         <v>2.2</v>
       </c>
-      <c r="L27" t="n">
-        <v>5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="V27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
         <v>11</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>13</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" t="n">
         <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP27" t="n">
         <v>23</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>29</v>
@@ -5411,34 +5401,34 @@
         <v>51</v>
       </c>
       <c r="AS27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA27" t="n">
         <v>151</v>
       </c>
-      <c r="AT27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>126</v>
-      </c>
       <c r="BB27" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BC27" t="n">
         <v>81</v>
@@ -5450,7 +5440,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4bttdVx2</t>
+          <t>vHd13DpS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,7 +5450,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5470,157 +5460,157 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P28" t="n">
         <v>2.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="Q28" t="n">
         <v>2.88</v>
       </c>
-      <c r="K28" t="n">
+      <c r="R28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T28" t="n">
         <v>2.2</v>
       </c>
-      <c r="L28" t="n">
+      <c r="U28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN28" t="n">
         <v>3.6</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>10</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X28" t="n">
+      <c r="AO28" t="n">
         <v>11</v>
       </c>
-      <c r="Y28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>12</v>
-      </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS28" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ28" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA28" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB28" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC28" t="n">
         <v>81</v>
@@ -5632,7 +5622,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jgo01QEs</t>
+          <t>63bg5ZFF</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,7 +5632,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5652,55 +5642,55 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U29" t="n">
         <v>1.83</v>
@@ -5709,49 +5699,49 @@
         <v>1.83</v>
       </c>
       <c r="W29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X29" t="n">
         <v>7.5</v>
       </c>
-      <c r="X29" t="n">
-        <v>11</v>
-      </c>
       <c r="Y29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="n">
         <v>41</v>
@@ -5760,25 +5750,25 @@
         <v>301</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU29" t="n">
         <v>8.5</v>
@@ -5787,22 +5777,22 @@
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ29" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA29" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC29" t="n">
         <v>81</v>
@@ -5814,7 +5804,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pfJSJYU8</t>
+          <t>4bttdVx2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,7 +5814,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5834,157 +5824,157 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V30" t="n">
         <v>2.1</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>15</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="W30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN30" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2</v>
-      </c>
-      <c r="W30" t="n">
-        <v>8</v>
-      </c>
-      <c r="X30" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z30" t="n">
+      <c r="AO30" t="n">
         <v>12</v>
       </c>
-      <c r="AA30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI30" t="n">
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX30" t="n">
         <v>17</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX30" t="n">
+      <c r="AY30" t="n">
         <v>26</v>
       </c>
-      <c r="AY30" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ30" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA30" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC30" t="n">
         <v>81</v>
@@ -5996,7 +5986,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nLv9a4qf</t>
+          <t>jgo01QEs</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,7 +5996,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6016,118 +6006,118 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K31" t="n">
         <v>2.05</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2</v>
-      </c>
       <c r="L31" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W31" t="n">
         <v>7.5</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W31" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
         <v>9.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
         <v>34</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG31" t="n">
         <v>9</v>
       </c>
       <c r="AH31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>41</v>
       </c>
       <c r="AM31" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP31" t="n">
         <v>26</v>
@@ -6142,31 +6132,31 @@
         <v>201</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA31" t="n">
         <v>81</v>
       </c>
-      <c r="BA31" t="n">
-        <v>101</v>
-      </c>
       <c r="BB31" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC31" t="n">
         <v>81</v>
@@ -6178,7 +6168,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8OARDK0B</t>
+          <t>pfJSJYU8</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,179 +6178,179 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="H32" t="n">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>17</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="K32" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="S32" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T32" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U32" t="n">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="W32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X32" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z32" t="n">
         <v>12</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>6</v>
       </c>
       <c r="AA32" t="n">
         <v>12</v>
       </c>
       <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK32" t="n">
         <v>41</v>
       </c>
-      <c r="AC32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE32" t="n">
+      <c r="AL32" t="n">
         <v>41</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>251</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>101</v>
       </c>
       <c r="AM32" t="n">
         <v>201</v>
       </c>
       <c r="AN32" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AR32" t="n">
         <v>41</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ32" t="n">
         <v>81</v>
       </c>
-      <c r="AW32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>351</v>
-      </c>
       <c r="BA32" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="BB32" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC32" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD32" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tEOPoB3F</t>
+          <t>nLv9a4qf</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,179 +6360,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="R33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U33" t="n">
         <v>2</v>
       </c>
-      <c r="S33" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.6</v>
-      </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="W33" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="X33" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>11.75</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="AH33" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ33" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP33" t="n">
         <v>26</v>
       </c>
-      <c r="AL33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ33" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR33" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AS33" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AU33" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AV33" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AW33" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AY33" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AZ33" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA33" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="BB33" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="BC33" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD33" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>82eFhJGa</t>
+          <t>8OARDK0B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,167 +6542,167 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>1.14</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.55</v>
+        <v>17</v>
       </c>
       <c r="J34" t="n">
-        <v>2.55</v>
+        <v>1.53</v>
       </c>
       <c r="K34" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>7.8</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="S34" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="T34" t="n">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="V34" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="W34" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="X34" t="n">
-        <v>10.25</v>
+        <v>5.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>18.5</v>
+        <v>6</v>
       </c>
       <c r="AA34" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="n">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="n">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AH34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>251</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP34" t="n">
         <v>21</v>
       </c>
-      <c r="AI34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ34" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AR34" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AS34" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="AU34" t="n">
-        <v>6.7</v>
+        <v>13</v>
       </c>
       <c r="AV34" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW34" t="n">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="AX34" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="AY34" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="AZ34" t="n">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="BA34" t="n">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="BB34" t="n">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="BC34" t="n">
         <v>51</v>
@@ -6724,7 +6714,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rZtf1obm</t>
+          <t>tEOPoB3F</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,164 +6724,164 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="H35" t="n">
         <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="K35" t="n">
         <v>2.1</v>
       </c>
       <c r="L35" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>11.4</v>
+        <v>7.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T35" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q35" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.57</v>
-      </c>
       <c r="U35" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="V35" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>7.6</v>
+        <v>8.75</v>
       </c>
       <c r="X35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE35" t="n">
         <v>11.75</v>
       </c>
-      <c r="Y35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z35" t="n">
+      <c r="AF35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK35" t="n">
         <v>26</v>
       </c>
-      <c r="AA35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF35" t="n">
+      <c r="AL35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR35" t="n">
         <v>70</v>
       </c>
-      <c r="AG35" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR35" t="n">
+      <c r="AS35" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ35" t="n">
         <v>90</v>
       </c>
-      <c r="AS35" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>60</v>
-      </c>
       <c r="BA35" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BB35" t="n">
         <v>250</v>
@@ -6906,7 +6896,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>QH0N67zQ</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,172 +6906,536 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="J36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.15</v>
       </c>
-      <c r="K36" t="n">
-        <v>2.07</v>
-      </c>
       <c r="L36" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>10.8</v>
+        <v>7.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>2.72</v>
+        <v>3.55</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.62</v>
       </c>
-      <c r="S36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V36" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="W36" t="n">
-        <v>5.7</v>
+        <v>8.25</v>
       </c>
       <c r="X36" t="n">
-        <v>7.1</v>
+        <v>10.25</v>
       </c>
       <c r="Y36" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z36" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD36" t="n">
         <v>6.6</v>
       </c>
       <c r="AE36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>rZtf1obm</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>QH0N67zQ</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Dep. Tachira</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W38" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X38" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE38" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AF38" t="n">
         <v>100</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AG38" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AH38" t="n">
         <v>35</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AI38" t="n">
         <v>18</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AJ38" t="n">
         <v>120</v>
       </c>
-      <c r="AK36" t="n">
+      <c r="AK38" t="n">
         <v>70</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AL38" t="n">
         <v>70</v>
       </c>
-      <c r="AM36" t="n">
+      <c r="AM38" t="n">
         <v>900</v>
       </c>
-      <c r="AN36" t="n">
+      <c r="AN38" t="n">
         <v>3.35</v>
       </c>
-      <c r="AO36" t="n">
+      <c r="AO38" t="n">
         <v>7.8</v>
       </c>
-      <c r="AP36" t="n">
+      <c r="AP38" t="n">
         <v>17.5</v>
       </c>
-      <c r="AQ36" t="n">
+      <c r="AQ38" t="n">
         <v>26</v>
       </c>
-      <c r="AR36" t="n">
+      <c r="AR38" t="n">
         <v>55</v>
       </c>
-      <c r="AS36" t="n">
+      <c r="AS38" t="n">
         <v>250</v>
       </c>
-      <c r="AT36" t="n">
+      <c r="AT38" t="n">
         <v>2.47</v>
       </c>
-      <c r="AU36" t="n">
+      <c r="AU38" t="n">
         <v>7.4</v>
       </c>
-      <c r="AV36" t="n">
+      <c r="AV38" t="n">
         <v>70</v>
       </c>
-      <c r="AW36" t="n">
+      <c r="AW38" t="n">
         <v>7.1</v>
       </c>
-      <c r="AX36" t="n">
+      <c r="AX38" t="n">
         <v>35</v>
       </c>
-      <c r="AY36" t="n">
+      <c r="AY38" t="n">
         <v>37</v>
       </c>
-      <c r="AZ36" t="n">
+      <c r="AZ38" t="n">
         <v>250</v>
       </c>
-      <c r="BA36" t="n">
+      <c r="BA38" t="n">
         <v>250</v>
       </c>
-      <c r="BB36" t="n">
+      <c r="BB38" t="n">
         <v>500</v>
       </c>
-      <c r="BC36" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD36" t="n">
+      <c r="BC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD38" t="n">
         <v>51</v>
       </c>
     </row>
